--- a/code/excels/dota/dota_units.xlsx
+++ b/code/excels/dota/dota_units.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="param" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8209" uniqueCount="4243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8278" uniqueCount="4271">
   <si>
     <t>主键</t>
   </si>
@@ -12822,6 +12823,90 @@
   </si>
   <si>
     <t>root</t>
+  </si>
+  <si>
+    <t>dota_hero_spirit_bear</t>
+  </si>
+  <si>
+    <t>dota_hero_t01</t>
+  </si>
+  <si>
+    <t>dota_hero_t02</t>
+  </si>
+  <si>
+    <t>dota_hero_t03</t>
+  </si>
+  <si>
+    <t>dota_hero_t04</t>
+  </si>
+  <si>
+    <t>dota_hero_t05</t>
+  </si>
+  <si>
+    <t>dota_hero_t06</t>
+  </si>
+  <si>
+    <t>dota_hero_t07</t>
+  </si>
+  <si>
+    <t>dota_hero_t08</t>
+  </si>
+  <si>
+    <t>dota_hero_t10</t>
+  </si>
+  <si>
+    <t>dota_hero_t11</t>
+  </si>
+  <si>
+    <t>dota_hero_t12</t>
+  </si>
+  <si>
+    <t>dota_hero_t15</t>
+  </si>
+  <si>
+    <t>dota_hero_t16</t>
+  </si>
+  <si>
+    <t>dota_hero_t17</t>
+  </si>
+  <si>
+    <t>dota_hero_t19</t>
+  </si>
+  <si>
+    <t>dota_hero_t21</t>
+  </si>
+  <si>
+    <t>dota_hero_t22</t>
+  </si>
+  <si>
+    <t>dota_hero_t23</t>
+  </si>
+  <si>
+    <t>dota_hero_t25</t>
+  </si>
+  <si>
+    <t>dota_hero_t27</t>
+  </si>
+  <si>
+    <t>dota_hero_t28</t>
+  </si>
+  <si>
+    <t>dota_hero_t29</t>
+  </si>
+  <si>
+    <t>dota_hero_t34</t>
+  </si>
+  <si>
+    <t>dota_hero_t35</t>
+  </si>
+  <si>
+    <t>dota_hero_t36</t>
+  </si>
+  <si>
+    <t>dota_hero_t37</t>
+  </si>
+  <si>
+    <t>dota_hero_t41</t>
   </si>
 </sst>
 </file>
@@ -12830,11 +12915,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -12844,9 +12929,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12866,28 +12965,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -12901,24 +12978,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12940,9 +13010,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12956,23 +13065,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -12988,7 +13080,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13003,37 +13095,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13051,6 +13137,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13063,7 +13155,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13075,13 +13185,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13093,13 +13239,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13111,79 +13275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13207,6 +13299,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -13222,16 +13329,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13246,21 +13353,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -13297,154 +13389,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13834,27 +13930,29 @@
   <sheetPr/>
   <dimension ref="A1:DC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="59" max="59" width="32.0833333333333" customWidth="1"/>
+    <col min="63" max="63" width="14.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:107">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
@@ -14171,13 +14269,13 @@
       <c r="A2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E2" t="s">
@@ -14509,8 +14607,8 @@
       <c r="G3">
         <v>1001</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J3" t="s">
@@ -14731,8 +14829,8 @@
       <c r="G4">
         <v>1002</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J4" t="s">
@@ -14938,8 +15036,8 @@
       <c r="G5">
         <v>1070</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J5" t="s">
@@ -15142,8 +15240,8 @@
       <c r="G6">
         <v>1047</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J6" t="s">
@@ -15343,8 +15441,8 @@
       <c r="G7">
         <v>1003</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J7" t="s">
@@ -15547,8 +15645,8 @@
       <c r="G8">
         <v>1005</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J8" t="s">
@@ -15754,8 +15852,8 @@
       <c r="G9">
         <v>1006</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J9" t="s">
@@ -15946,8 +16044,8 @@
       <c r="G10">
         <v>1046</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J10" t="s">
@@ -16165,8 +16263,8 @@
       <c r="G11">
         <v>1010</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J11" t="s">
@@ -16369,8 +16467,8 @@
       <c r="G12">
         <v>1039</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J12" t="s">
@@ -16597,8 +16695,8 @@
       <c r="G13">
         <v>1011</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J13" t="s">
@@ -16786,8 +16884,8 @@
       <c r="G14">
         <v>1075</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J14" t="s">
@@ -16978,8 +17076,8 @@
       <c r="G15">
         <v>1013</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J15" t="s">
@@ -17179,8 +17277,8 @@
       <c r="G16">
         <v>1014</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J16" t="s">
@@ -17404,8 +17502,8 @@
       <c r="G17">
         <v>1015</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J17" t="s">
@@ -17608,8 +17706,8 @@
       <c r="G18">
         <v>1016</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J18" t="s">
@@ -17794,8 +17892,8 @@
       <c r="G19">
         <v>1018</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J19" t="s">
@@ -17983,8 +18081,8 @@
       <c r="G20">
         <v>1019</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J20" t="s">
@@ -18178,8 +18276,8 @@
       <c r="G21">
         <v>1028</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J21" t="s">
@@ -18382,8 +18480,8 @@
       <c r="G22">
         <v>1021</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J22" t="s">
@@ -18580,8 +18678,8 @@
       <c r="G23">
         <v>1022</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J23" t="s">
@@ -18787,8 +18885,8 @@
       <c r="G24">
         <v>1024</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J24" t="s">
@@ -18991,8 +19089,8 @@
       <c r="G25">
         <v>1049</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J25" t="s">
@@ -19198,8 +19296,8 @@
       <c r="G26">
         <v>1008</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J26" t="s">
@@ -19390,8 +19488,8 @@
       <c r="G27">
         <v>1007</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J27" t="s">
@@ -19594,8 +19692,8 @@
       <c r="G28">
         <v>1009</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J28" t="s">
@@ -19789,8 +19887,8 @@
       <c r="G29">
         <v>1017</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J29" t="s">
@@ -19987,8 +20085,8 @@
       <c r="G30">
         <v>1025</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J30" t="s">
@@ -20182,8 +20280,8 @@
       <c r="G31">
         <v>1020</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="s">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J31" t="s">
@@ -20377,8 +20475,8 @@
       <c r="G32">
         <v>1023</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J32" t="s">
@@ -20578,8 +20676,8 @@
       <c r="G33">
         <v>1048</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2" t="s">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J33" t="s">
@@ -20776,8 +20874,8 @@
       <c r="G34">
         <v>1026</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2" t="s">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J34" t="s">
@@ -20977,8 +21075,8 @@
       <c r="G35">
         <v>1040</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J35" t="s">
@@ -21181,8 +21279,8 @@
       <c r="G36">
         <v>1034</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J36" t="s">
@@ -21385,8 +21483,8 @@
       <c r="G37">
         <v>1012</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J37" t="s">
@@ -21586,8 +21684,8 @@
       <c r="G38">
         <v>1059</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J38" t="s">
@@ -21790,8 +21888,8 @@
       <c r="G39">
         <v>1036</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J39" t="s">
@@ -21994,8 +22092,8 @@
       <c r="G40">
         <v>1051</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2" t="s">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J40" t="s">
@@ -22195,8 +22293,8 @@
       <c r="G41">
         <v>1030</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="s">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J41" t="s">
@@ -22390,8 +22488,8 @@
       <c r="G42">
         <v>1027</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2" t="s">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J42" t="s">
@@ -22591,8 +22689,8 @@
       <c r="G43">
         <v>1052</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2" t="s">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J43" t="s">
@@ -22804,8 +22902,8 @@
       <c r="G44">
         <v>1062</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2" t="s">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J44" t="s">
@@ -23011,8 +23109,8 @@
       <c r="G45">
         <v>1080</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J45" t="s">
@@ -23218,8 +23316,8 @@
       <c r="G46">
         <v>1035</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J46" t="s">
@@ -23422,8 +23520,8 @@
       <c r="G47">
         <v>1086</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2" t="s">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J47" t="s">
@@ -23629,8 +23727,8 @@
       <c r="G48">
         <v>1029</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2" t="s">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J48" t="s">
@@ -23833,8 +23931,8 @@
       <c r="G49">
         <v>1082</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J49" t="s">
@@ -24031,8 +24129,8 @@
       <c r="G50">
         <v>1058</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2" t="s">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J50" t="s">
@@ -24241,8 +24339,8 @@
       <c r="G51">
         <v>1004</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2" t="s">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J51" t="s">
@@ -24439,8 +24537,8 @@
       <c r="G52">
         <v>1031</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2" t="s">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J52" t="s">
@@ -24634,8 +24732,8 @@
       <c r="G53">
         <v>1038</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2" t="s">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J53" t="s">
@@ -24829,8 +24927,8 @@
       <c r="G54">
         <v>1032</v>
       </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2" t="s">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J54" t="s">
@@ -25030,8 +25128,8 @@
       <c r="G55">
         <v>1061</v>
       </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2" t="s">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J55" t="s">
@@ -25228,8 +25326,8 @@
       <c r="G56">
         <v>1033</v>
       </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2" t="s">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J56" t="s">
@@ -25423,8 +25521,8 @@
       <c r="G57">
         <v>1068</v>
       </c>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2" t="s">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J57" t="s">
@@ -25639,8 +25737,8 @@
       <c r="G58">
         <v>1057</v>
       </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2" t="s">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J58" t="s">
@@ -25837,8 +25935,8 @@
       <c r="G59">
         <v>1037</v>
       </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2" t="s">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J59" t="s">
@@ -26035,8 +26133,8 @@
       <c r="G60">
         <v>1054</v>
       </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2" t="s">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J60" t="s">
@@ -26230,8 +26328,8 @@
       <c r="G61">
         <v>1042</v>
       </c>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2" t="s">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J61" t="s">
@@ -26422,8 +26520,8 @@
       <c r="G62">
         <v>1053</v>
       </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2" t="s">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J62" t="s">
@@ -26617,8 +26715,8 @@
       <c r="G63">
         <v>1064</v>
       </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2" t="s">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J63" t="s">
@@ -26818,8 +26916,8 @@
       <c r="G64">
         <v>1041</v>
       </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J64" t="s">
@@ -27013,8 +27111,8 @@
       <c r="G65">
         <v>1055</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2" t="s">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J65" t="s">
@@ -27205,8 +27303,8 @@
       <c r="G66">
         <v>1056</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2" t="s">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J66" t="s">
@@ -27400,8 +27498,8 @@
       <c r="G67">
         <v>1050</v>
       </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2" t="s">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J67" t="s">
@@ -27595,8 +27693,8 @@
       <c r="G68">
         <v>1044</v>
       </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2" t="s">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J68" t="s">
@@ -27805,8 +27903,8 @@
       <c r="G69">
         <v>1045</v>
       </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2" t="s">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J69" t="s">
@@ -28006,8 +28104,8 @@
       <c r="G70">
         <v>1043</v>
       </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2" t="s">
+      <c r="H70" s="4"/>
+      <c r="I70" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J70" t="s">
@@ -28204,8 +28302,8 @@
       <c r="G71">
         <v>1063</v>
       </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2" t="s">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J71" t="s">
@@ -28390,8 +28488,8 @@
       <c r="G72">
         <v>1066</v>
       </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2" t="s">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J72" t="s">
@@ -28585,8 +28683,8 @@
       <c r="G73">
         <v>1078</v>
       </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2" t="s">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J73" t="s">
@@ -28780,8 +28878,8 @@
       <c r="G74">
         <v>1060</v>
       </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2" t="s">
+      <c r="H74" s="4"/>
+      <c r="I74" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J74" t="s">
@@ -28984,8 +29082,8 @@
       <c r="G75">
         <v>1067</v>
       </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2" t="s">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J75" t="s">
@@ -29206,8 +29304,8 @@
       <c r="G76">
         <v>1065</v>
       </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2" t="s">
+      <c r="H76" s="4"/>
+      <c r="I76" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J76" t="s">
@@ -29395,8 +29493,8 @@
       <c r="G77">
         <v>1069</v>
       </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2" t="s">
+      <c r="H77" s="4"/>
+      <c r="I77" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J77" t="s">
@@ -29596,8 +29694,8 @@
       <c r="G78">
         <v>1072</v>
       </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2" t="s">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J78" t="s">
@@ -29794,8 +29892,8 @@
       <c r="G79">
         <v>1074</v>
       </c>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2" t="s">
+      <c r="H79" s="4"/>
+      <c r="I79" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J79" t="s">
@@ -29989,8 +30087,8 @@
       <c r="G80">
         <v>1071</v>
       </c>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2" t="s">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J80" t="s">
@@ -30193,8 +30291,8 @@
       <c r="G81">
         <v>1073</v>
       </c>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2" t="s">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J81" t="s">
@@ -30391,8 +30489,8 @@
       <c r="G82">
         <v>1079</v>
       </c>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2" t="s">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J82" t="s">
@@ -30577,8 +30675,8 @@
       <c r="G83">
         <v>1091</v>
       </c>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2" t="s">
+      <c r="H83" s="4"/>
+      <c r="I83" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J83" t="s">
@@ -30775,8 +30873,8 @@
       <c r="G84">
         <v>1076</v>
       </c>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2" t="s">
+      <c r="H84" s="4"/>
+      <c r="I84" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J84" t="s">
@@ -30964,8 +31062,8 @@
       <c r="G85">
         <v>1077</v>
       </c>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2" t="s">
+      <c r="H85" s="4"/>
+      <c r="I85" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J85" t="s">
@@ -31171,8 +31269,8 @@
       <c r="G86">
         <v>1084</v>
       </c>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2" t="s">
+      <c r="H86" s="4"/>
+      <c r="I86" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J86" t="s">
@@ -31366,8 +31464,8 @@
       <c r="G87">
         <v>1081</v>
       </c>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2" t="s">
+      <c r="H87" s="4"/>
+      <c r="I87" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J87" t="s">
@@ -31570,8 +31668,8 @@
       <c r="G88">
         <v>1085</v>
       </c>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2" t="s">
+      <c r="H88" s="4"/>
+      <c r="I88" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J88" t="s">
@@ -31765,8 +31863,8 @@
       <c r="G89">
         <v>1088</v>
       </c>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2" t="s">
+      <c r="H89" s="4"/>
+      <c r="I89" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J89" t="s">
@@ -31951,8 +32049,8 @@
       <c r="G90">
         <v>1087</v>
       </c>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2" t="s">
+      <c r="H90" s="4"/>
+      <c r="I90" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J90" t="s">
@@ -32149,8 +32247,8 @@
       <c r="G91">
         <v>1089</v>
       </c>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2" t="s">
+      <c r="H91" s="4"/>
+      <c r="I91" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J91" t="s">
@@ -32347,8 +32445,8 @@
       <c r="G92">
         <v>1083</v>
       </c>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2" t="s">
+      <c r="H92" s="4"/>
+      <c r="I92" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J92" t="s">
@@ -32536,8 +32634,8 @@
       <c r="G93">
         <v>1090</v>
       </c>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2" t="s">
+      <c r="H93" s="4"/>
+      <c r="I93" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J93" t="s">
@@ -32734,8 +32832,8 @@
       <c r="G94">
         <v>1094</v>
       </c>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2" t="s">
+      <c r="H94" s="4"/>
+      <c r="I94" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J94" t="s">
@@ -32941,8 +33039,8 @@
       <c r="G95">
         <v>1096</v>
       </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2" t="s">
+      <c r="H95" s="4"/>
+      <c r="I95" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J95" t="s">
@@ -33142,8 +33240,8 @@
       <c r="G96">
         <v>1097</v>
       </c>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2" t="s">
+      <c r="H96" s="4"/>
+      <c r="I96" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J96" t="s">
@@ -33361,8 +33459,8 @@
       <c r="G97">
         <v>1093</v>
       </c>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2" t="s">
+      <c r="H97" s="4"/>
+      <c r="I97" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J97" t="s">
@@ -33562,8 +33660,8 @@
       <c r="G98">
         <v>1092</v>
       </c>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2" t="s">
+      <c r="H98" s="4"/>
+      <c r="I98" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J98" t="s">
@@ -33757,8 +33855,8 @@
       <c r="G99">
         <v>1095</v>
       </c>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2" t="s">
+      <c r="H99" s="4"/>
+      <c r="I99" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J99" t="s">
@@ -33958,8 +34056,8 @@
       <c r="G100">
         <v>1099</v>
       </c>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2" t="s">
+      <c r="H100" s="4"/>
+      <c r="I100" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J100" t="s">
@@ -34162,8 +34260,8 @@
       <c r="G101">
         <v>1098</v>
       </c>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2" t="s">
+      <c r="H101" s="4"/>
+      <c r="I101" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J101" t="s">
@@ -34366,8 +34464,8 @@
       <c r="G102">
         <v>1100</v>
       </c>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2" t="s">
+      <c r="H102" s="4"/>
+      <c r="I102" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J102" t="s">
@@ -34576,8 +34674,8 @@
       <c r="G103">
         <v>1102</v>
       </c>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2" t="s">
+      <c r="H103" s="4"/>
+      <c r="I103" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J103" t="s">
@@ -34780,8 +34878,8 @@
       <c r="G104">
         <v>1101</v>
       </c>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2" t="s">
+      <c r="H104" s="4"/>
+      <c r="I104" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J104" t="s">
@@ -34966,8 +35064,8 @@
       <c r="G105">
         <v>1105</v>
       </c>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2" t="s">
+      <c r="H105" s="4"/>
+      <c r="I105" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J105" t="s">
@@ -35155,8 +35253,8 @@
       <c r="G106">
         <v>1103</v>
       </c>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2" t="s">
+      <c r="H106" s="4"/>
+      <c r="I106" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J106" t="s">
@@ -35350,8 +35448,8 @@
       <c r="G107">
         <v>1104</v>
       </c>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2" t="s">
+      <c r="H107" s="4"/>
+      <c r="I107" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J107" t="s">
@@ -35548,8 +35646,8 @@
       <c r="G108">
         <v>1107</v>
       </c>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2" t="s">
+      <c r="H108" s="4"/>
+      <c r="I108" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J108" t="s">
@@ -35755,8 +35853,8 @@
       <c r="G109">
         <v>1106</v>
       </c>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2" t="s">
+      <c r="H109" s="4"/>
+      <c r="I109" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J109" t="s">
@@ -35956,8 +36054,8 @@
       <c r="G110">
         <v>1109</v>
       </c>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2" t="s">
+      <c r="H110" s="4"/>
+      <c r="I110" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J110" t="s">
@@ -36166,8 +36264,8 @@
       <c r="G111">
         <v>1108</v>
       </c>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2" t="s">
+      <c r="H111" s="4"/>
+      <c r="I111" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J111" t="s">
@@ -36382,8 +36480,8 @@
       <c r="G112">
         <v>1000</v>
       </c>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2" t="s">
+      <c r="H112" s="4"/>
+      <c r="I112" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J112" t="s">
@@ -36517,8 +36615,8 @@
       <c r="G113">
         <v>1110</v>
       </c>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2" t="s">
+      <c r="H113" s="4"/>
+      <c r="I113" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J113" t="s">
@@ -36611,7 +36709,7 @@
       <c r="AW113" t="s">
         <v>885</v>
       </c>
-      <c r="AX113" s="2" t="s">
+      <c r="AX113" s="4" t="s">
         <v>225</v>
       </c>
       <c r="AZ113" t="s">
@@ -36715,8 +36813,8 @@
       <c r="G114">
         <v>1111</v>
       </c>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2" t="s">
+      <c r="H114" s="4"/>
+      <c r="I114" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J114" t="s">
@@ -36812,7 +36910,7 @@
       <c r="AW114" t="s">
         <v>885</v>
       </c>
-      <c r="AX114" s="2" t="s">
+      <c r="AX114" s="4" t="s">
         <v>225</v>
       </c>
       <c r="AY114" t="s">
@@ -36925,8 +37023,8 @@
       <c r="G115">
         <v>1112</v>
       </c>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2" t="s">
+      <c r="H115" s="4"/>
+      <c r="I115" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J115" t="s">
@@ -37022,7 +37120,7 @@
       <c r="AW115" t="s">
         <v>985</v>
       </c>
-      <c r="AX115" s="2" t="s">
+      <c r="AX115" s="4" t="s">
         <v>225</v>
       </c>
       <c r="BA115" t="s">
@@ -37076,16 +37174,16 @@
       <c r="BV115" t="s">
         <v>1220</v>
       </c>
-      <c r="CD115" s="3" t="s">
+      <c r="CD115" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="CE115" s="3" t="s">
+      <c r="CE115" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="CF115" s="3" t="s">
+      <c r="CF115" s="5" t="s">
         <v>1680</v>
       </c>
-      <c r="CG115" s="3" t="s">
+      <c r="CG115" s="5" t="s">
         <v>3913</v>
       </c>
       <c r="CJ115" t="s">
@@ -37123,8 +37221,8 @@
       <c r="G116">
         <v>1113</v>
       </c>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2" t="s">
+      <c r="H116" s="4"/>
+      <c r="I116" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J116" t="s">
@@ -37226,7 +37324,7 @@
       <c r="AW116" t="s">
         <v>338</v>
       </c>
-      <c r="AX116" s="2" t="s">
+      <c r="AX116" s="4" t="s">
         <v>225</v>
       </c>
       <c r="AZ116" t="s">
@@ -37336,8 +37434,8 @@
       <c r="G117">
         <v>1115</v>
       </c>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2" t="s">
+      <c r="H117" s="4"/>
+      <c r="I117" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J117" t="s">
@@ -37445,7 +37543,7 @@
       <c r="AW117" t="s">
         <v>338</v>
       </c>
-      <c r="AX117" s="2" t="s">
+      <c r="AX117" s="4" t="s">
         <v>225</v>
       </c>
       <c r="AY117" t="s">
@@ -37552,8 +37650,8 @@
       <c r="G118">
         <v>1114</v>
       </c>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2" t="s">
+      <c r="H118" s="4"/>
+      <c r="I118" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J118" t="s">
@@ -37661,7 +37759,7 @@
       <c r="AW118" t="s">
         <v>462</v>
       </c>
-      <c r="AX118" s="2" t="s">
+      <c r="AX118" s="4" t="s">
         <v>225</v>
       </c>
       <c r="AY118" t="s">
@@ -37780,8 +37878,8 @@
       <c r="G119">
         <v>1116</v>
       </c>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2" t="s">
+      <c r="H119" s="4"/>
+      <c r="I119" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J119" t="s">
@@ -37889,7 +37987,7 @@
       <c r="AW119" t="s">
         <v>462</v>
       </c>
-      <c r="AX119" s="2" t="s">
+      <c r="AX119" s="4" t="s">
         <v>225</v>
       </c>
       <c r="BA119" t="s">
@@ -37987,8 +38085,8 @@
       <c r="G120">
         <v>1117</v>
       </c>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2" t="s">
+      <c r="H120" s="4"/>
+      <c r="I120" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J120" t="s">
@@ -38078,7 +38176,7 @@
       <c r="AW120" t="s">
         <v>224</v>
       </c>
-      <c r="AX120" s="2" t="s">
+      <c r="AX120" s="4" t="s">
         <v>225</v>
       </c>
       <c r="AY120" t="s">
@@ -38191,8 +38289,8 @@
       <c r="G121">
         <v>1119</v>
       </c>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2" t="s">
+      <c r="H121" s="4"/>
+      <c r="I121" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J121" t="s">
@@ -38282,7 +38380,7 @@
       <c r="AW121" t="s">
         <v>985</v>
       </c>
-      <c r="AX121" s="2" t="s">
+      <c r="AX121" s="4" t="s">
         <v>225</v>
       </c>
       <c r="AY121" t="s">
@@ -38392,8 +38490,8 @@
       <c r="G122">
         <v>1118</v>
       </c>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2" t="s">
+      <c r="H122" s="4"/>
+      <c r="I122" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J122" t="s">
@@ -38501,7 +38599,7 @@
       <c r="AW122" t="s">
         <v>382</v>
       </c>
-      <c r="AX122" s="2" t="s">
+      <c r="AX122" s="4" t="s">
         <v>225</v>
       </c>
       <c r="BA122" t="s">
@@ -38608,8 +38706,8 @@
       <c r="G123">
         <v>1120</v>
       </c>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2" t="s">
+      <c r="H123" s="4"/>
+      <c r="I123" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J123" t="s">
@@ -38717,7 +38815,7 @@
       <c r="AW123" t="s">
         <v>1122</v>
       </c>
-      <c r="AX123" s="2" t="s">
+      <c r="AX123" s="4" t="s">
         <v>225</v>
       </c>
       <c r="AY123" t="s">
@@ -38824,8 +38922,8 @@
       <c r="G124">
         <v>1121</v>
       </c>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2" t="s">
+      <c r="H124" s="4"/>
+      <c r="I124" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J124" t="s">
@@ -38927,7 +39025,7 @@
       <c r="AW124" t="s">
         <v>224</v>
       </c>
-      <c r="AX124" s="2" t="s">
+      <c r="AX124" s="4" t="s">
         <v>225</v>
       </c>
       <c r="AY124" t="s">
@@ -39022,7 +39120,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="E1:CS2 E3 E4:E124 A1:A2 BD113:BD114 AY113:BB114 K113:AW114 BF111:CX111 BD111 K111:BB111 BF4:CX110 BD4:BD110 AY4:BB110 K4:AW32 K33:AW110 BD115 AY115:BB115 K115:AW115 CH115:CX115 BD116:BD124 AY116:BB124 K116:AW124 A4:A124 BF3:CX3 BD3 AY3:BB3 K3:AW3 A3 BF113:CX114 K112:CX112 BF115:CC115 BF116:CX124" numberStoredAsText="1"/>
+    <ignoredError sqref="BF116:CX124 BF115:CC115 K112:CX112 BF113:CX114 A3 K3:AW3 AY3:BB3 BD3 BF3:CX3 A4:A124 K116:AW124 AY116:BB124 BD116:BD124 CH115:CX115 K115:AW115 AY115:BB115 BD115 K33:AW110 K4:AW32 AY4:BB110 BD4:BD110 BF4:CX110 K111:BB111 BD111 BF111:CX111 K113:AW114 AY113:BB114 BD113:BD114 A1:A2 E4:E124 E3 E1:CS2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -40334,4 +40432,645 @@
     <ignoredError sqref="A1:CS4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D4:G72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:7">
+      <c r="D4" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>VLOOKUP(D4,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7">
+      <c r="D5" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>VLOOKUP(D5,data!$A:$BL,64,0)</f>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7">
+      <c r="D6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>VLOOKUP(D6,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>VLOOKUP(D7,data!$A:$BL,64,0)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>VLOOKUP(D8,data!$A:$BL,64,0)</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>VLOOKUP(D9,data!$A:$BL,64,0)</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>VLOOKUP(D10,data!$A:$BL,64,0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>VLOOKUP(D11,data!$A:$BL,64,0)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>VLOOKUP(D12,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>VLOOKUP(D13,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="D14" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>VLOOKUP(D14,data!$A:$BL,64,0)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>VLOOKUP(D15,data!$A:$BL,64,0)</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7">
+      <c r="D16" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>VLOOKUP(D16,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="1" t="s">
+        <v>3831</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>VLOOKUP(D17,data!$A:$BL,64,0)</f>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f>VLOOKUP(D18,data!$A:$BL,64,0)</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f>VLOOKUP(D19,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f>VLOOKUP(D20,data!$A:$BL,64,0)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f>VLOOKUP(D21,data!$A:$BL,64,0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f>VLOOKUP(D22,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f>VLOOKUP(D23,data!$A:$BL,64,0)</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="1" t="s">
+        <v>4078</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f>VLOOKUP(D24,data!$A:$BL,64,0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f>VLOOKUP(D25,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f>VLOOKUP(D26,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f>VLOOKUP(D27,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f>VLOOKUP(D28,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f>VLOOKUP(D29,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f>VLOOKUP(D30,data!$A:$BL,64,0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f>VLOOKUP(D31,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f>VLOOKUP(D32,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f>VLOOKUP(D33,data!$A:$BL,64,0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f>VLOOKUP(D34,data!$A:$BL,64,0)</f>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f>VLOOKUP(D35,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f>VLOOKUP(D36,data!$A:$BL,64,0)</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f>VLOOKUP(D37,data!$A:$BL,64,0)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f>VLOOKUP(D38,data!$A:$BL,64,0)</f>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f>VLOOKUP(D39,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f>VLOOKUP(D40,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f>VLOOKUP(D41,data!$A:$BL,64,0)</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="D42" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f>VLOOKUP(D42,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f>VLOOKUP(D43,data!$A:$BL,64,0)</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="1" t="s">
+        <v>4243</v>
+      </c>
+      <c r="G44" s="2" t="e">
+        <f>VLOOKUP(D44,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="D45" s="1" t="s">
+        <v>3953</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f>VLOOKUP(D45,data!$A:$BL,64,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" s="1" t="s">
+        <v>4244</v>
+      </c>
+      <c r="G46" s="2" t="e">
+        <f>VLOOKUP(D46,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" s="1" t="s">
+        <v>4245</v>
+      </c>
+      <c r="G47" s="2" t="e">
+        <f>VLOOKUP(D47,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="D48" s="1" t="s">
+        <v>4246</v>
+      </c>
+      <c r="G48" s="2" t="e">
+        <f>VLOOKUP(D48,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="D49" s="1" t="s">
+        <v>4247</v>
+      </c>
+      <c r="G49" s="2" t="e">
+        <f>VLOOKUP(D49,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7">
+      <c r="D50" s="1" t="s">
+        <v>4248</v>
+      </c>
+      <c r="G50" s="2" t="e">
+        <f>VLOOKUP(D50,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" s="1" t="s">
+        <v>4249</v>
+      </c>
+      <c r="G51" s="2" t="e">
+        <f>VLOOKUP(D51,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" s="1" t="s">
+        <v>4250</v>
+      </c>
+      <c r="G52" s="2" t="e">
+        <f>VLOOKUP(D52,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" s="1" t="s">
+        <v>4251</v>
+      </c>
+      <c r="G53" s="2" t="e">
+        <f>VLOOKUP(D53,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="D54" s="1" t="s">
+        <v>4252</v>
+      </c>
+      <c r="G54" s="2" t="e">
+        <f>VLOOKUP(D54,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="D55" s="1" t="s">
+        <v>4253</v>
+      </c>
+      <c r="G55" s="2" t="e">
+        <f>VLOOKUP(D55,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="D56" s="1" t="s">
+        <v>4254</v>
+      </c>
+      <c r="G56" s="2" t="e">
+        <f>VLOOKUP(D56,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="D57" s="1" t="s">
+        <v>4255</v>
+      </c>
+      <c r="G57" s="2" t="e">
+        <f>VLOOKUP(D57,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7">
+      <c r="D58" s="1" t="s">
+        <v>4256</v>
+      </c>
+      <c r="G58" s="2" t="e">
+        <f>VLOOKUP(D58,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="D59" s="1" t="s">
+        <v>4257</v>
+      </c>
+      <c r="G59" s="2" t="e">
+        <f>VLOOKUP(D59,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7">
+      <c r="D60" s="1" t="s">
+        <v>4258</v>
+      </c>
+      <c r="G60" s="2" t="e">
+        <f>VLOOKUP(D60,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7">
+      <c r="D61" s="1" t="s">
+        <v>4259</v>
+      </c>
+      <c r="G61" s="2" t="e">
+        <f>VLOOKUP(D61,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7">
+      <c r="D62" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="G62" s="2" t="e">
+        <f>VLOOKUP(D62,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7">
+      <c r="D63" s="1" t="s">
+        <v>4261</v>
+      </c>
+      <c r="G63" s="2" t="e">
+        <f>VLOOKUP(D63,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7">
+      <c r="D64" s="1" t="s">
+        <v>4262</v>
+      </c>
+      <c r="G64" s="2" t="e">
+        <f>VLOOKUP(D64,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7">
+      <c r="D65" s="1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="G65" s="2" t="e">
+        <f>VLOOKUP(D65,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7">
+      <c r="D66" s="1" t="s">
+        <v>4264</v>
+      </c>
+      <c r="G66" s="2" t="e">
+        <f>VLOOKUP(D66,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7">
+      <c r="D67" s="1" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G67" s="2" t="e">
+        <f>VLOOKUP(D67,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7">
+      <c r="D68" s="1" t="s">
+        <v>4266</v>
+      </c>
+      <c r="G68" s="2" t="e">
+        <f>VLOOKUP(D68,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7">
+      <c r="D69" s="1" t="s">
+        <v>4267</v>
+      </c>
+      <c r="G69" s="2" t="e">
+        <f>VLOOKUP(D69,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7">
+      <c r="D70" s="1" t="s">
+        <v>4268</v>
+      </c>
+      <c r="G70" s="2" t="e">
+        <f>VLOOKUP(D70,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7">
+      <c r="D71" s="1" t="s">
+        <v>4269</v>
+      </c>
+      <c r="G71" s="2" t="e">
+        <f>VLOOKUP(D71,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7">
+      <c r="D72" s="1" t="s">
+        <v>4270</v>
+      </c>
+      <c r="G72" s="2" t="e">
+        <f>VLOOKUP(D72,data!$A:$BL,64,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/code/excels/dota/dota_units.xlsx
+++ b/code/excels/dota/dota_units.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15758" uniqueCount="4437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15575" uniqueCount="4361">
   <si>
     <t>主键</t>
   </si>
@@ -13033,380 +13033,151 @@
     <t>root</t>
   </si>
   <si>
-    <t>未定义</t>
-  </si>
-  <si>
-    <t>npc</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_antimage</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_axe</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_bane</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_bloodseeker</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_crystal_maiden</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_drow_ranger</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_earthshaker</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_juggernaut</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_mirana</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_nevermore</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_morphling</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_phantom_lancer</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_puck</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_pudge</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_razor</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_sand_king</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_storm_spirit</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_sven</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_tiny</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_vengefulspirit</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_windrunner</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_zuus</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_kunkka</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_lina</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_lich</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_lion</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_shadow_shaman</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_slardar</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_tidehunter</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_witch_doctor</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_riki</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_enigma</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_tinker</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_sniper</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_necrolyte</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_warlock</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_beastmaster</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_queenofpain</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_venomancer</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_faceless_void</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_skeleton_king</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_death_prophet</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_phantom_assassin</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_pugna</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_viper</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_luna</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_dragon_knight</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_dazzle</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_rattletrap</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_leshrac</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_furion</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_life_stealer</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_dark_seer</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_clinkz</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_omniknight</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_enchantress</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_huskar</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_night_stalker</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_broodmother</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_bounty_hunter</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_weaver</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_jakiro</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_batrider</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_chen</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_spectre</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_doom_bringer</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_ancient_apparition</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_ursa</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_spirit_breaker</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_gyrocopter</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_alchemist</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_invoker</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_silencer</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_obsidian_destroyer</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_lycan</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_brewmaster</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_shadow_demon</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_lone_druid</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_chaos_knight</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_meepo</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_treant</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_ogre_magi</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_undying</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_rubick</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_disruptor</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_nyx_assassin</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_naga_siren</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_keeper_of_the_light</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_wisp</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_visage</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_slark</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_medusa</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_troll_warlord</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_centaur</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_magnataur</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_shredder</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_bristleback</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_tusk</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_skywrath_mage</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_abaddon</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_elder_titan</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_legion_commander</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_ember_spirit</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_earth_spirit</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_terrorblade</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_phoenix</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_oracle</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_techies</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_target_dummy</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_arc_warden</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_abyssal_underlord</t>
-  </si>
-  <si>
-    <t>100
-395</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_monkey_king</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_pangolier</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_dark_willow</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_grimstroke</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_mars</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_snapfire</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_hoodwink</t>
-  </si>
-  <si>
-    <t>npc/units/dota/dota_hero_dawnbreaker</t>
+    <t>是否启用</t>
+  </si>
+  <si>
+    <t>卡片名字</t>
+  </si>
+  <si>
+    <t>dota名字</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>羁绊1</t>
+  </si>
+  <si>
+    <t>羁绊2</t>
+  </si>
+  <si>
+    <t>力量lv1</t>
+  </si>
+  <si>
+    <t>敏捷lv1</t>
+  </si>
+  <si>
+    <t>智力lv1</t>
+  </si>
+  <si>
+    <t>力量lv2</t>
+  </si>
+  <si>
+    <t>敏捷lv2</t>
+  </si>
+  <si>
+    <t>智力lv2</t>
+  </si>
+  <si>
+    <t>力量lv3</t>
+  </si>
+  <si>
+    <t>敏捷lv3</t>
+  </si>
+  <si>
+    <t>智力lv3</t>
+  </si>
+  <si>
+    <t>力量lv4</t>
+  </si>
+  <si>
+    <t>敏捷lv4</t>
+  </si>
+  <si>
+    <t>智力lv4</t>
+  </si>
+  <si>
+    <t>力量lv5</t>
+  </si>
+  <si>
+    <t>敏捷lv5</t>
+  </si>
+  <si>
+    <t>智力lv5</t>
+  </si>
+  <si>
+    <t>力量lv6</t>
+  </si>
+  <si>
+    <t>敏捷lv6</t>
+  </si>
+  <si>
+    <t>智力lv6</t>
+  </si>
+  <si>
+    <t>IsValid</t>
+  </si>
+  <si>
+    <t>CardName</t>
+  </si>
+  <si>
+    <t>DotaHeroName</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Relation_1</t>
+  </si>
+  <si>
+    <t>Relation_2</t>
+  </si>
+  <si>
+    <t>AttributeBaseStrength1</t>
+  </si>
+  <si>
+    <t>AttributeBaseAgility1</t>
+  </si>
+  <si>
+    <t>AttributeBaseIntelligence1</t>
+  </si>
+  <si>
+    <t>AttributeBaseStrength2</t>
+  </si>
+  <si>
+    <t>AttributeBaseAgility2</t>
+  </si>
+  <si>
+    <t>AttributeBaseIntelligence2</t>
+  </si>
+  <si>
+    <t>AttributeBaseStrength3</t>
+  </si>
+  <si>
+    <t>AttributeBaseAgility3</t>
+  </si>
+  <si>
+    <t>AttributeBaseIntelligence3</t>
+  </si>
+  <si>
+    <t>AttributeBaseStrength4</t>
+  </si>
+  <si>
+    <t>AttributeBaseAgility4</t>
+  </si>
+  <si>
+    <t>AttributeBaseIntelligence4</t>
+  </si>
+  <si>
+    <t>AttributeBaseStrength5</t>
+  </si>
+  <si>
+    <t>AttributeBaseAgility5</t>
+  </si>
+  <si>
+    <t>AttributeBaseIntelligence5</t>
+  </si>
+  <si>
+    <t>AttributeBaseStrength6</t>
+  </si>
+  <si>
+    <t>AttributeBaseAgility6</t>
+  </si>
+  <si>
+    <t>AttributeBaseIntelligence6</t>
   </si>
 </sst>
 </file>
@@ -13419,7 +13190,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -13429,14 +13200,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13450,7 +13228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13463,8 +13241,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13478,25 +13264,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13508,41 +13280,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13564,6 +13311,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -13571,20 +13326,180 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -13594,7 +13509,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13612,157 +13551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13773,7 +13562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -13783,10 +13572,14 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13815,6 +13608,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -13826,6 +13628,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13845,190 +13673,172 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14414,11 +14224,17 @@
   <sheetPr/>
   <dimension ref="A1:DC126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" topLeftCell="CQ1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="DB12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:107">
       <c r="A1" t="s">
@@ -37323,7 +37139,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:DC126" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:DC1 A2:CC2 CE2:DC2 A3:DC126" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38640,15 +38456,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DC124"/>
+  <dimension ref="A1:EB126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H10" sqref="A1:EB126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="108" max="108" width="9" style="1"/>
+    <col min="109" max="109" width="9.75" style="1" customWidth="1"/>
+    <col min="110" max="110" width="13.8333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:107">
+    <row r="1" spans="1:132">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -38970,8 +38793,83 @@
       <c r="DC1" t="s">
         <v>104</v>
       </c>
+      <c r="DD1" s="1" t="s">
+        <v>4312</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>4313</v>
+      </c>
+      <c r="DF1" s="3" t="s">
+        <v>4314</v>
+      </c>
+      <c r="DG1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="DH1" s="3" t="s">
+        <v>4315</v>
+      </c>
+      <c r="DI1" s="3" t="s">
+        <v>4316</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>4317</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>4318</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>4319</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>4320</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>4321</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>4322</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>4323</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>4324</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>4325</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>4327</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>4328</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>4329</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>4331</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>4332</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>4333</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>4334</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>4335</v>
+      </c>
     </row>
-    <row r="2" spans="1:107">
+    <row r="2" spans="1:132">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -39293,31 +39191,97 @@
       <c r="DC2" t="s">
         <v>189</v>
       </c>
+      <c r="DD2" s="1" t="s">
+        <v>4336</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>4337</v>
+      </c>
+      <c r="DF2" s="3" t="s">
+        <v>4338</v>
+      </c>
+      <c r="DG2" s="3" t="s">
+        <v>4339</v>
+      </c>
+      <c r="DH2" s="3" t="s">
+        <v>4340</v>
+      </c>
+      <c r="DI2" s="3" t="s">
+        <v>4341</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>4342</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>4343</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>4344</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>4345</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>4346</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>4347</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>4348</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>4349</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>4350</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>4351</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>4352</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>4353</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>4354</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>4355</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>4356</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>4357</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>4358</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>4359</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>4360</v>
+      </c>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:113">
       <c r="A3" t="s">
         <v>190</v>
       </c>
-      <c r="B3" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F3">
-        <v>1001</v>
-      </c>
-      <c r="G3">
-        <v>1001</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4313</v>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="F3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
       </c>
       <c r="J3" t="s">
-        <v>4314</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
         <v>193</v>
@@ -39412,21 +39376,14 @@
       <c r="AW3" t="s">
         <v>222</v>
       </c>
-      <c r="AX3" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX3"/>
       <c r="BA3" t="s">
         <v>223</v>
       </c>
-      <c r="BC3">
-        <v>1000</v>
-      </c>
       <c r="BD3" t="s">
         <v>224</v>
       </c>
-      <c r="BE3">
-        <v>1000</v>
-      </c>
+      <c r="BE3"/>
       <c r="BG3" t="s">
         <v>225</v>
       </c>
@@ -39514,31 +39471,26 @@
       <c r="CU3" t="s">
         <v>251</v>
       </c>
+      <c r="DF3" s="3"/>
+      <c r="DG3" s="3"/>
+      <c r="DH3" s="3"/>
+      <c r="DI3" s="3"/>
     </row>
-    <row r="4" spans="1:94">
+    <row r="4" spans="1:113">
       <c r="A4" t="s">
         <v>252</v>
       </c>
-      <c r="B4" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F4">
-        <v>1002</v>
-      </c>
-      <c r="G4">
-        <v>1002</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4313</v>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" t="s">
+        <v>253</v>
       </c>
       <c r="J4" t="s">
-        <v>4315</v>
+        <v>254</v>
       </c>
       <c r="L4" t="s">
         <v>193</v>
@@ -39630,21 +39582,14 @@
       <c r="AW4" t="s">
         <v>222</v>
       </c>
-      <c r="AX4" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX4"/>
       <c r="BA4" t="s">
         <v>280</v>
       </c>
-      <c r="BC4">
-        <v>1000</v>
-      </c>
       <c r="BD4" t="s">
         <v>281</v>
       </c>
-      <c r="BE4">
-        <v>1000</v>
-      </c>
+      <c r="BE4"/>
       <c r="BG4" t="s">
         <v>225</v>
       </c>
@@ -39720,31 +39665,26 @@
       <c r="CP4" t="s">
         <v>302</v>
       </c>
+      <c r="DF4" s="3"/>
+      <c r="DG4" s="3"/>
+      <c r="DH4" s="3"/>
+      <c r="DI4" s="3"/>
     </row>
-    <row r="5" spans="1:92">
+    <row r="5" spans="1:113">
       <c r="A5" t="s">
         <v>303</v>
       </c>
-      <c r="B5" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F5">
-        <v>1003</v>
-      </c>
-      <c r="G5">
-        <v>1070</v>
-      </c>
-      <c r="I5" t="s">
-        <v>4313</v>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="F5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" t="s">
+        <v>304</v>
       </c>
       <c r="J5" t="s">
-        <v>4316</v>
+        <v>305</v>
       </c>
       <c r="L5" t="s">
         <v>193</v>
@@ -39848,18 +39788,10 @@
       <c r="AW5" t="s">
         <v>336</v>
       </c>
-      <c r="AX5" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX5"/>
       <c r="BA5" t="s">
         <v>191</v>
       </c>
-      <c r="BC5">
-        <v>1000</v>
-      </c>
-      <c r="BE5">
-        <v>1000</v>
-      </c>
       <c r="BG5" t="s">
         <v>337</v>
       </c>
@@ -39923,31 +39855,26 @@
       <c r="CN5" t="s">
         <v>351</v>
       </c>
+      <c r="DF5" s="3"/>
+      <c r="DG5" s="3"/>
+      <c r="DH5" s="3"/>
+      <c r="DI5" s="3"/>
     </row>
-    <row r="6" spans="1:95">
+    <row r="6" spans="1:115">
       <c r="A6" t="s">
         <v>352</v>
       </c>
-      <c r="B6" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F6">
-        <v>1004</v>
-      </c>
-      <c r="G6">
-        <v>1047</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4313</v>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="F6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" t="s">
+        <v>353</v>
       </c>
       <c r="J6" t="s">
-        <v>4317</v>
+        <v>354</v>
       </c>
       <c r="L6" t="s">
         <v>193</v>
@@ -40045,18 +39972,10 @@
       <c r="AW6" t="s">
         <v>381</v>
       </c>
-      <c r="AX6" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX6"/>
       <c r="BA6" t="s">
         <v>253</v>
       </c>
-      <c r="BC6">
-        <v>1000</v>
-      </c>
-      <c r="BE6">
-        <v>1000</v>
-      </c>
       <c r="BG6" t="s">
         <v>225</v>
       </c>
@@ -40123,31 +40042,28 @@
       <c r="CQ6" t="s">
         <v>392</v>
       </c>
+      <c r="DF6" s="3"/>
+      <c r="DG6" s="3"/>
+      <c r="DH6" s="3"/>
+      <c r="DI6" s="3"/>
+      <c r="DJ6" s="3"/>
+      <c r="DK6" s="3"/>
     </row>
     <row r="7" spans="1:93">
       <c r="A7" t="s">
         <v>393</v>
       </c>
-      <c r="B7" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F7">
-        <v>1005</v>
-      </c>
-      <c r="G7">
-        <v>1003</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4313</v>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="F7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" t="s">
+        <v>297</v>
       </c>
       <c r="J7" t="s">
-        <v>4318</v>
+        <v>394</v>
       </c>
       <c r="L7" t="s">
         <v>193</v>
@@ -40242,20 +40158,12 @@
       <c r="AW7" t="s">
         <v>421</v>
       </c>
-      <c r="AX7" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX7"/>
       <c r="AZ7" t="s">
         <v>191</v>
       </c>
       <c r="BA7" t="s">
         <v>280</v>
-      </c>
-      <c r="BC7">
-        <v>1000</v>
-      </c>
-      <c r="BE7">
-        <v>1000</v>
       </c>
       <c r="BF7" t="s">
         <v>422</v>
@@ -40331,26 +40239,17 @@
       <c r="A8" t="s">
         <v>435</v>
       </c>
-      <c r="B8" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F8">
-        <v>1006</v>
-      </c>
-      <c r="G8">
-        <v>1005</v>
-      </c>
-      <c r="I8" t="s">
-        <v>4313</v>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="F8" t="s">
+        <v>436</v>
+      </c>
+      <c r="G8" t="s">
+        <v>299</v>
       </c>
       <c r="J8" t="s">
-        <v>4319</v>
+        <v>437</v>
       </c>
       <c r="L8" t="s">
         <v>193</v>
@@ -40439,9 +40338,7 @@
       <c r="AW8" t="s">
         <v>461</v>
       </c>
-      <c r="AX8" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX8"/>
       <c r="AY8" t="s">
         <v>462</v>
       </c>
@@ -40451,15 +40348,10 @@
       <c r="BA8" t="s">
         <v>223</v>
       </c>
-      <c r="BC8">
-        <v>1000</v>
-      </c>
       <c r="BD8" t="s">
         <v>224</v>
       </c>
-      <c r="BE8">
-        <v>1000</v>
-      </c>
+      <c r="BE8"/>
       <c r="BG8" t="s">
         <v>337</v>
       </c>
@@ -40537,26 +40429,17 @@
       <c r="A9" t="s">
         <v>479</v>
       </c>
-      <c r="B9" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F9">
-        <v>1007</v>
-      </c>
-      <c r="G9">
-        <v>1006</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4313</v>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="F9" t="s">
+        <v>480</v>
+      </c>
+      <c r="G9" t="s">
+        <v>436</v>
       </c>
       <c r="J9" t="s">
-        <v>4320</v>
+        <v>481</v>
       </c>
       <c r="L9" t="s">
         <v>193</v>
@@ -40645,24 +40528,17 @@
       <c r="AW9" t="s">
         <v>222</v>
       </c>
-      <c r="AX9" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX9"/>
       <c r="AY9" t="s">
         <v>195</v>
       </c>
       <c r="BA9" t="s">
         <v>253</v>
       </c>
-      <c r="BC9">
-        <v>1000</v>
-      </c>
       <c r="BD9" t="s">
         <v>422</v>
       </c>
-      <c r="BE9">
-        <v>1000</v>
-      </c>
+      <c r="BE9"/>
       <c r="BG9" t="s">
         <v>225</v>
       </c>
@@ -40728,26 +40604,17 @@
       <c r="A10" t="s">
         <v>511</v>
       </c>
-      <c r="B10" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F10">
-        <v>1008</v>
-      </c>
-      <c r="G10">
-        <v>1046</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4313</v>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="F10" t="s">
+        <v>512</v>
+      </c>
+      <c r="G10" t="s">
+        <v>513</v>
       </c>
       <c r="J10" t="s">
-        <v>4321</v>
+        <v>514</v>
       </c>
       <c r="L10" t="s">
         <v>193</v>
@@ -40842,24 +40709,17 @@
       <c r="AW10" t="s">
         <v>336</v>
       </c>
-      <c r="AX10" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX10"/>
       <c r="AZ10" t="s">
         <v>191</v>
       </c>
       <c r="BA10" t="s">
         <v>223</v>
       </c>
-      <c r="BC10">
-        <v>1000</v>
-      </c>
       <c r="BD10" t="s">
         <v>464</v>
       </c>
-      <c r="BE10">
-        <v>1000</v>
-      </c>
+      <c r="BE10"/>
       <c r="BG10" t="s">
         <v>225</v>
       </c>
@@ -40942,30 +40802,21 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:94">
+    <row r="11" spans="1:100">
       <c r="A11" t="s">
         <v>550</v>
       </c>
-      <c r="B11" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F11">
-        <v>1009</v>
-      </c>
-      <c r="G11">
-        <v>1010</v>
-      </c>
-      <c r="I11" t="s">
-        <v>4313</v>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="F11" t="s">
+        <v>546</v>
+      </c>
+      <c r="G11" t="s">
+        <v>551</v>
       </c>
       <c r="J11" t="s">
-        <v>4322</v>
+        <v>552</v>
       </c>
       <c r="L11" t="s">
         <v>193</v>
@@ -41057,21 +40908,13 @@
       <c r="AW11" t="s">
         <v>461</v>
       </c>
-      <c r="AX11" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX11"/>
       <c r="AZ11" t="s">
         <v>191</v>
       </c>
       <c r="BA11" t="s">
         <v>280</v>
       </c>
-      <c r="BC11">
-        <v>1000</v>
-      </c>
-      <c r="BE11">
-        <v>1000</v>
-      </c>
       <c r="BF11" t="s">
         <v>577</v>
       </c>
@@ -41143,32 +40986,41 @@
       </c>
       <c r="CP11" t="s">
         <v>591</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>592</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>593</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>594</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>595</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>596</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:91">
       <c r="A12" t="s">
         <v>598</v>
       </c>
-      <c r="B12" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F12">
-        <v>1011</v>
-      </c>
-      <c r="G12">
-        <v>1039</v>
-      </c>
-      <c r="I12" t="s">
-        <v>4313</v>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="F12" t="s">
+        <v>599</v>
+      </c>
+      <c r="G12" t="s">
+        <v>431</v>
       </c>
       <c r="J12" t="s">
-        <v>4323</v>
+        <v>600</v>
       </c>
       <c r="L12" t="s">
         <v>193</v>
@@ -41278,24 +41130,17 @@
       <c r="AW12" t="s">
         <v>336</v>
       </c>
-      <c r="AX12" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX12"/>
       <c r="AY12" t="s">
         <v>195</v>
       </c>
       <c r="BA12" t="s">
         <v>191</v>
       </c>
-      <c r="BC12">
-        <v>1000</v>
-      </c>
       <c r="BD12" t="s">
         <v>224</v>
       </c>
-      <c r="BE12">
-        <v>1000</v>
-      </c>
+      <c r="BE12"/>
       <c r="BF12" t="s">
         <v>629</v>
       </c>
@@ -41376,26 +41221,17 @@
       <c r="A13" t="s">
         <v>643</v>
       </c>
-      <c r="B13" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F13">
-        <v>1010</v>
-      </c>
-      <c r="G13">
-        <v>1011</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4313</v>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="F13" t="s">
+        <v>551</v>
+      </c>
+      <c r="G13" t="s">
+        <v>599</v>
       </c>
       <c r="J13" t="s">
-        <v>4324</v>
+        <v>644</v>
       </c>
       <c r="L13" t="s">
         <v>193</v>
@@ -41481,17 +41317,9 @@
       <c r="AW13" t="s">
         <v>421</v>
       </c>
-      <c r="AX13" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX13"/>
       <c r="BA13" t="s">
         <v>666</v>
-      </c>
-      <c r="BC13">
-        <v>1000</v>
-      </c>
-      <c r="BE13">
-        <v>1000</v>
       </c>
       <c r="BG13" t="s">
         <v>337</v>
@@ -41564,26 +41392,17 @@
       <c r="A14" t="s">
         <v>679</v>
       </c>
-      <c r="B14" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F14">
-        <v>1012</v>
-      </c>
-      <c r="G14">
-        <v>1075</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4313</v>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="F14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" t="s">
+        <v>471</v>
       </c>
       <c r="J14" t="s">
-        <v>4325</v>
+        <v>680</v>
       </c>
       <c r="L14" t="s">
         <v>193</v>
@@ -41672,24 +41491,17 @@
       <c r="AW14" t="s">
         <v>461</v>
       </c>
-      <c r="AX14" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX14"/>
       <c r="AZ14" t="s">
         <v>191</v>
       </c>
       <c r="BA14" t="s">
         <v>280</v>
       </c>
-      <c r="BC14">
-        <v>1000</v>
-      </c>
       <c r="BD14" t="s">
         <v>703</v>
       </c>
-      <c r="BE14">
-        <v>1000</v>
-      </c>
+      <c r="BE14"/>
       <c r="BG14" t="s">
         <v>225</v>
       </c>
@@ -41755,26 +41567,17 @@
       <c r="A15" t="s">
         <v>714</v>
       </c>
-      <c r="B15" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F15">
-        <v>1013</v>
-      </c>
-      <c r="G15">
-        <v>1013</v>
-      </c>
-      <c r="I15" t="s">
-        <v>4313</v>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="F15" t="s">
+        <v>715</v>
+      </c>
+      <c r="G15" t="s">
+        <v>715</v>
       </c>
       <c r="J15" t="s">
-        <v>4326</v>
+        <v>716</v>
       </c>
       <c r="L15" t="s">
         <v>193</v>
@@ -41872,24 +41675,17 @@
       <c r="AW15" t="s">
         <v>461</v>
       </c>
-      <c r="AX15" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX15"/>
       <c r="AY15" t="s">
         <v>743</v>
       </c>
       <c r="BA15" t="s">
         <v>744</v>
       </c>
-      <c r="BC15">
-        <v>1000</v>
-      </c>
       <c r="BD15" t="s">
         <v>464</v>
       </c>
-      <c r="BE15">
-        <v>1000</v>
-      </c>
+      <c r="BE15"/>
       <c r="BG15" t="s">
         <v>337</v>
       </c>
@@ -41951,30 +41747,21 @@
         <v>752</v>
       </c>
     </row>
-    <row r="16" spans="1:101">
+    <row r="16" spans="1:102">
       <c r="A16" t="s">
         <v>753</v>
       </c>
-      <c r="B16" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F16">
-        <v>1014</v>
-      </c>
-      <c r="G16">
-        <v>1014</v>
-      </c>
-      <c r="I16" t="s">
-        <v>4313</v>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="F16" t="s">
+        <v>541</v>
+      </c>
+      <c r="G16" t="s">
+        <v>541</v>
       </c>
       <c r="J16" t="s">
-        <v>4327</v>
+        <v>754</v>
       </c>
       <c r="L16" t="s">
         <v>193</v>
@@ -42069,24 +41856,17 @@
       <c r="AW16" t="s">
         <v>421</v>
       </c>
-      <c r="AX16" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX16"/>
       <c r="AY16" t="s">
         <v>780</v>
       </c>
       <c r="BA16" t="s">
         <v>223</v>
       </c>
-      <c r="BC16">
-        <v>1000</v>
-      </c>
       <c r="BD16" t="s">
         <v>253</v>
       </c>
-      <c r="BE16">
-        <v>1000</v>
-      </c>
+      <c r="BE16"/>
       <c r="BG16" t="s">
         <v>225</v>
       </c>
@@ -42173,32 +41953,26 @@
       </c>
       <c r="CW16" t="s">
         <v>798</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="17" spans="1:93">
       <c r="A17" t="s">
         <v>800</v>
       </c>
-      <c r="B17" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F17">
-        <v>1015</v>
-      </c>
-      <c r="G17">
-        <v>1015</v>
-      </c>
-      <c r="I17" t="s">
-        <v>4313</v>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="F17" t="s">
+        <v>470</v>
+      </c>
+      <c r="G17" t="s">
+        <v>470</v>
       </c>
       <c r="J17" t="s">
-        <v>4328</v>
+        <v>801</v>
       </c>
       <c r="L17" t="s">
         <v>193</v>
@@ -42296,21 +42070,14 @@
       <c r="AW17" t="s">
         <v>461</v>
       </c>
-      <c r="AX17" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX17"/>
       <c r="BA17" t="s">
         <v>280</v>
       </c>
-      <c r="BC17">
-        <v>1000</v>
-      </c>
       <c r="BD17" t="s">
         <v>191</v>
       </c>
-      <c r="BE17">
-        <v>1000</v>
-      </c>
+      <c r="BE17"/>
       <c r="BG17" t="s">
         <v>337</v>
       </c>
@@ -42382,26 +42149,17 @@
       <c r="A18" t="s">
         <v>836</v>
       </c>
-      <c r="B18" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F18">
-        <v>1016</v>
-      </c>
-      <c r="G18">
-        <v>1016</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4313</v>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="F18" t="s">
+        <v>427</v>
+      </c>
+      <c r="G18" t="s">
+        <v>427</v>
       </c>
       <c r="J18" t="s">
-        <v>4329</v>
+        <v>837</v>
       </c>
       <c r="L18" t="s">
         <v>193</v>
@@ -42493,17 +42251,9 @@
       <c r="AW18" t="s">
         <v>461</v>
       </c>
-      <c r="AX18" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX18"/>
       <c r="BA18" t="s">
         <v>280</v>
-      </c>
-      <c r="BC18">
-        <v>1000</v>
-      </c>
-      <c r="BE18">
-        <v>1000</v>
       </c>
       <c r="BG18" t="s">
         <v>225</v>
@@ -42567,26 +42317,17 @@
       <c r="A19" t="s">
         <v>868</v>
       </c>
-      <c r="B19" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F19">
-        <v>1017</v>
-      </c>
-      <c r="G19">
-        <v>1018</v>
-      </c>
-      <c r="I19" t="s">
-        <v>4313</v>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="F19" t="s">
+        <v>384</v>
+      </c>
+      <c r="G19" t="s">
+        <v>291</v>
       </c>
       <c r="J19" t="s">
-        <v>4330</v>
+        <v>869</v>
       </c>
       <c r="L19" t="s">
         <v>193</v>
@@ -42678,20 +42419,12 @@
       <c r="AW19" t="s">
         <v>893</v>
       </c>
-      <c r="AX19" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX19"/>
       <c r="AY19" t="s">
         <v>743</v>
       </c>
       <c r="BA19" t="s">
         <v>253</v>
-      </c>
-      <c r="BC19">
-        <v>1000</v>
-      </c>
-      <c r="BE19">
-        <v>1000</v>
       </c>
       <c r="BG19" t="s">
         <v>337</v>
@@ -42755,26 +42488,17 @@
       <c r="A20" t="s">
         <v>900</v>
       </c>
-      <c r="B20" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F20">
-        <v>1018</v>
-      </c>
-      <c r="G20">
-        <v>1019</v>
-      </c>
-      <c r="I20" t="s">
-        <v>4313</v>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="F20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" t="s">
+        <v>630</v>
       </c>
       <c r="J20" t="s">
-        <v>4331</v>
+        <v>901</v>
       </c>
       <c r="L20" t="s">
         <v>193</v>
@@ -42866,17 +42590,9 @@
       <c r="AW20" t="s">
         <v>921</v>
       </c>
-      <c r="AX20" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX20"/>
       <c r="BA20" t="s">
         <v>191</v>
-      </c>
-      <c r="BC20">
-        <v>1000</v>
-      </c>
-      <c r="BE20">
-        <v>1000</v>
       </c>
       <c r="BG20" t="s">
         <v>225</v>
@@ -42949,26 +42665,17 @@
       <c r="A21" t="s">
         <v>926</v>
       </c>
-      <c r="B21" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F21">
-        <v>1019</v>
-      </c>
-      <c r="G21">
-        <v>1028</v>
-      </c>
-      <c r="I21" t="s">
-        <v>4313</v>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="F21" t="s">
+        <v>630</v>
+      </c>
+      <c r="G21" t="s">
+        <v>423</v>
       </c>
       <c r="J21" t="s">
-        <v>4332</v>
+        <v>927</v>
       </c>
       <c r="L21" t="s">
         <v>193</v>
@@ -43060,21 +42767,14 @@
       <c r="AW21" t="s">
         <v>381</v>
       </c>
-      <c r="AX21" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX21"/>
       <c r="BA21" t="s">
         <v>223</v>
       </c>
-      <c r="BC21">
-        <v>1000</v>
-      </c>
       <c r="BD21" t="s">
         <v>703</v>
       </c>
-      <c r="BE21">
-        <v>1000</v>
-      </c>
+      <c r="BE21"/>
       <c r="BG21" t="s">
         <v>225</v>
       </c>
@@ -43152,26 +42852,17 @@
       <c r="A22" t="s">
         <v>966</v>
       </c>
-      <c r="B22" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F22">
-        <v>1020</v>
-      </c>
-      <c r="G22">
-        <v>1021</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4313</v>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="F22" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" t="s">
+        <v>706</v>
       </c>
       <c r="J22" t="s">
-        <v>4333</v>
+        <v>967</v>
       </c>
       <c r="L22" t="s">
         <v>193</v>
@@ -43266,21 +42957,14 @@
       <c r="AW22" t="s">
         <v>993</v>
       </c>
-      <c r="AX22" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX22"/>
       <c r="BA22" t="s">
         <v>223</v>
       </c>
-      <c r="BC22">
-        <v>1000</v>
-      </c>
       <c r="BD22" t="s">
         <v>224</v>
       </c>
-      <c r="BE22">
-        <v>1000</v>
-      </c>
+      <c r="BE22"/>
       <c r="BG22" t="s">
         <v>337</v>
       </c>
@@ -43349,26 +43033,17 @@
       <c r="A23" t="s">
         <v>1003</v>
       </c>
-      <c r="B23" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F23">
-        <v>1021</v>
-      </c>
-      <c r="G23">
-        <v>1022</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4313</v>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="F23" t="s">
+        <v>706</v>
+      </c>
+      <c r="G23" t="s">
+        <v>345</v>
       </c>
       <c r="J23" t="s">
-        <v>4334</v>
+        <v>1004</v>
       </c>
       <c r="L23" t="s">
         <v>193</v>
@@ -43463,9 +43138,7 @@
       <c r="AW23" t="s">
         <v>461</v>
       </c>
-      <c r="AX23" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX23"/>
       <c r="AY23" t="s">
         <v>743</v>
       </c>
@@ -43474,12 +43147,6 @@
       </c>
       <c r="BA23" t="s">
         <v>280</v>
-      </c>
-      <c r="BC23">
-        <v>1000</v>
-      </c>
-      <c r="BE23">
-        <v>1000</v>
       </c>
       <c r="BG23" t="s">
         <v>337</v>
@@ -43555,26 +43222,17 @@
       <c r="A24" t="s">
         <v>1030</v>
       </c>
-      <c r="B24" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F24">
-        <v>1022</v>
-      </c>
-      <c r="G24">
-        <v>1024</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4313</v>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="F24" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" t="s">
+        <v>235</v>
       </c>
       <c r="J24" t="s">
-        <v>4335</v>
+        <v>1031</v>
       </c>
       <c r="L24" t="s">
         <v>193</v>
@@ -43675,17 +43333,9 @@
       <c r="AW24" t="s">
         <v>222</v>
       </c>
-      <c r="AX24" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX24"/>
       <c r="BA24" t="s">
         <v>253</v>
-      </c>
-      <c r="BC24">
-        <v>1000</v>
-      </c>
-      <c r="BE24">
-        <v>1000</v>
       </c>
       <c r="BG24" t="s">
         <v>337</v>
@@ -43758,26 +43408,17 @@
       <c r="A25" t="s">
         <v>1066</v>
       </c>
-      <c r="B25" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F25">
-        <v>1023</v>
-      </c>
-      <c r="G25">
-        <v>1049</v>
-      </c>
-      <c r="I25" t="s">
-        <v>4313</v>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1067</v>
       </c>
       <c r="J25" t="s">
-        <v>4336</v>
+        <v>1068</v>
       </c>
       <c r="L25" t="s">
         <v>193</v>
@@ -43878,21 +43519,14 @@
       <c r="AW25" t="s">
         <v>1093</v>
       </c>
-      <c r="AX25" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX25"/>
       <c r="BA25" t="s">
         <v>253</v>
       </c>
-      <c r="BC25">
-        <v>1000</v>
-      </c>
       <c r="BD25" t="s">
         <v>1094</v>
       </c>
-      <c r="BE25">
-        <v>1000</v>
-      </c>
+      <c r="BE25"/>
       <c r="BG25" t="s">
         <v>225</v>
       </c>
@@ -43964,26 +43598,17 @@
       <c r="A26" t="s">
         <v>1099</v>
       </c>
-      <c r="B26" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F26">
-        <v>1025</v>
-      </c>
-      <c r="G26">
-        <v>1008</v>
-      </c>
-      <c r="I26" t="s">
-        <v>4313</v>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="F26" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" t="s">
+        <v>512</v>
       </c>
       <c r="J26" t="s">
-        <v>4337</v>
+        <v>1100</v>
       </c>
       <c r="L26" t="s">
         <v>193</v>
@@ -44075,17 +43700,9 @@
       <c r="AW26" t="s">
         <v>461</v>
       </c>
-      <c r="AX26" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX26"/>
       <c r="BA26" t="s">
         <v>223</v>
-      </c>
-      <c r="BC26">
-        <v>1000</v>
-      </c>
-      <c r="BE26">
-        <v>1000</v>
       </c>
       <c r="BG26" t="s">
         <v>337</v>
@@ -44155,26 +43772,17 @@
       <c r="A27" t="s">
         <v>1132</v>
       </c>
-      <c r="B27" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F27">
-        <v>1031</v>
-      </c>
-      <c r="G27">
-        <v>1007</v>
-      </c>
-      <c r="I27" t="s">
-        <v>4313</v>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="F27" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" t="s">
+        <v>480</v>
       </c>
       <c r="J27" t="s">
-        <v>4338</v>
+        <v>1133</v>
       </c>
       <c r="L27" t="s">
         <v>193</v>
@@ -44272,17 +43880,9 @@
       <c r="AW27" t="s">
         <v>993</v>
       </c>
-      <c r="AX27" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX27"/>
       <c r="BA27" t="s">
         <v>280</v>
-      </c>
-      <c r="BC27">
-        <v>1000</v>
-      </c>
-      <c r="BE27">
-        <v>1000</v>
       </c>
       <c r="BF27" t="s">
         <v>1094</v>
@@ -44358,26 +43958,17 @@
       <c r="A28" t="s">
         <v>1168</v>
       </c>
-      <c r="B28" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F28">
-        <v>1026</v>
-      </c>
-      <c r="G28">
-        <v>1009</v>
-      </c>
-      <c r="I28" t="s">
-        <v>4313</v>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="F28" t="s">
+        <v>704</v>
+      </c>
+      <c r="G28" t="s">
+        <v>546</v>
       </c>
       <c r="J28" t="s">
-        <v>4339</v>
+        <v>1169</v>
       </c>
       <c r="L28" t="s">
         <v>193</v>
@@ -44472,17 +44063,9 @@
       <c r="AW28" t="s">
         <v>461</v>
       </c>
-      <c r="AX28" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX28"/>
       <c r="BA28" t="s">
         <v>223</v>
-      </c>
-      <c r="BC28">
-        <v>1000</v>
-      </c>
-      <c r="BE28">
-        <v>1000</v>
       </c>
       <c r="BG28" t="s">
         <v>337</v>
@@ -44552,26 +44135,17 @@
       <c r="A29" t="s">
         <v>1198</v>
       </c>
-      <c r="B29" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F29">
-        <v>1027</v>
-      </c>
-      <c r="G29">
-        <v>1017</v>
-      </c>
-      <c r="I29" t="s">
-        <v>4313</v>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="F29" t="s">
+        <v>282</v>
+      </c>
+      <c r="G29" t="s">
+        <v>384</v>
       </c>
       <c r="J29" t="s">
-        <v>4340</v>
+        <v>1199</v>
       </c>
       <c r="L29" t="s">
         <v>193</v>
@@ -44663,17 +44237,9 @@
       <c r="AW29" t="s">
         <v>893</v>
       </c>
-      <c r="AX29" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX29"/>
       <c r="BA29" t="s">
         <v>253</v>
-      </c>
-      <c r="BC29">
-        <v>1000</v>
-      </c>
-      <c r="BE29">
-        <v>1000</v>
       </c>
       <c r="BG29" t="s">
         <v>337</v>
@@ -44749,26 +44315,17 @@
       <c r="A30" t="s">
         <v>1234</v>
       </c>
-      <c r="B30" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F30">
-        <v>1028</v>
-      </c>
-      <c r="G30">
-        <v>1025</v>
-      </c>
-      <c r="I30" t="s">
-        <v>4313</v>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="F30" t="s">
+        <v>423</v>
+      </c>
+      <c r="G30" t="s">
+        <v>287</v>
       </c>
       <c r="J30" t="s">
-        <v>4341</v>
+        <v>1235</v>
       </c>
       <c r="L30" t="s">
         <v>193</v>
@@ -44860,21 +44417,14 @@
       <c r="AW30" t="s">
         <v>381</v>
       </c>
-      <c r="AX30" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX30"/>
       <c r="BA30" t="s">
         <v>297</v>
       </c>
-      <c r="BC30">
-        <v>1000</v>
-      </c>
       <c r="BD30" t="s">
         <v>464</v>
       </c>
-      <c r="BE30">
-        <v>1000</v>
-      </c>
+      <c r="BE30"/>
       <c r="BG30" t="s">
         <v>225</v>
       </c>
@@ -44943,26 +44493,17 @@
       <c r="A31" t="s">
         <v>1266</v>
       </c>
-      <c r="B31" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F31">
-        <v>1029</v>
-      </c>
-      <c r="G31">
-        <v>1020</v>
-      </c>
-      <c r="I31" t="s">
-        <v>4313</v>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>289</v>
       </c>
       <c r="J31" t="s">
-        <v>4342</v>
+        <v>1267</v>
       </c>
       <c r="L31" t="s">
         <v>193</v>
@@ -45057,17 +44598,9 @@
       <c r="AW31" t="s">
         <v>381</v>
       </c>
-      <c r="AX31" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX31"/>
       <c r="BA31" t="s">
         <v>223</v>
-      </c>
-      <c r="BC31">
-        <v>1000</v>
-      </c>
-      <c r="BE31">
-        <v>1000</v>
       </c>
       <c r="BG31" t="s">
         <v>225</v>
@@ -45137,26 +44670,17 @@
       <c r="A32" t="s">
         <v>1294</v>
       </c>
-      <c r="B32" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F32">
-        <v>1030</v>
-      </c>
-      <c r="G32">
-        <v>1023</v>
-      </c>
-      <c r="I32" t="s">
-        <v>4313</v>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="F32" t="s">
+        <v>994</v>
+      </c>
+      <c r="G32" t="s">
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>4343</v>
+        <v>1295</v>
       </c>
       <c r="L32" t="s">
         <v>193</v>
@@ -45254,17 +44778,9 @@
       <c r="AW32" t="s">
         <v>381</v>
       </c>
-      <c r="AX32" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX32"/>
       <c r="BA32" t="s">
         <v>223</v>
-      </c>
-      <c r="BC32">
-        <v>1000</v>
-      </c>
-      <c r="BE32">
-        <v>1000</v>
       </c>
       <c r="BG32" t="s">
         <v>337</v>
@@ -45337,26 +44853,17 @@
       <c r="A33" t="s">
         <v>1327</v>
       </c>
-      <c r="B33" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F33">
-        <v>1032</v>
-      </c>
-      <c r="G33">
-        <v>1048</v>
-      </c>
-      <c r="I33" t="s">
-        <v>4313</v>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="F33" t="s">
+        <v>578</v>
+      </c>
+      <c r="G33" t="s">
+        <v>782</v>
       </c>
       <c r="J33" t="s">
-        <v>4344</v>
+        <v>1328</v>
       </c>
       <c r="L33" t="s">
         <v>193</v>
@@ -45451,21 +44958,14 @@
       <c r="AW33" t="s">
         <v>1129</v>
       </c>
-      <c r="AX33" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX33"/>
       <c r="BA33" t="s">
         <v>297</v>
       </c>
-      <c r="BC33">
-        <v>1000</v>
-      </c>
       <c r="BD33" t="s">
         <v>748</v>
       </c>
-      <c r="BE33">
-        <v>1000</v>
-      </c>
+      <c r="BE33"/>
       <c r="BG33" t="s">
         <v>225</v>
       </c>
@@ -45534,26 +45034,17 @@
       <c r="A34" t="s">
         <v>1360</v>
       </c>
-      <c r="B34" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F34">
-        <v>1033</v>
-      </c>
-      <c r="G34">
-        <v>1026</v>
-      </c>
-      <c r="I34" t="s">
-        <v>4313</v>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>704</v>
       </c>
       <c r="J34" t="s">
-        <v>4345</v>
+        <v>1361</v>
       </c>
       <c r="L34" t="s">
         <v>193</v>
@@ -45654,17 +45145,9 @@
       <c r="AW34" t="s">
         <v>461</v>
       </c>
-      <c r="AX34" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX34"/>
       <c r="BA34" t="s">
         <v>253</v>
-      </c>
-      <c r="BC34">
-        <v>1000</v>
-      </c>
-      <c r="BE34">
-        <v>1000</v>
       </c>
       <c r="BG34" t="s">
         <v>337</v>
@@ -45734,26 +45217,17 @@
       <c r="A35" t="s">
         <v>1394</v>
       </c>
-      <c r="B35" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F35">
-        <v>1034</v>
-      </c>
-      <c r="G35">
-        <v>1040</v>
-      </c>
-      <c r="I35" t="s">
-        <v>4313</v>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="F35" t="s">
+        <v>424</v>
+      </c>
+      <c r="G35" t="s">
+        <v>432</v>
       </c>
       <c r="J35" t="s">
-        <v>4346</v>
+        <v>1395</v>
       </c>
       <c r="L35" t="s">
         <v>193</v>
@@ -45845,17 +45319,9 @@
       <c r="AW35" t="s">
         <v>461</v>
       </c>
-      <c r="AX35" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX35"/>
       <c r="BA35" t="s">
         <v>253</v>
-      </c>
-      <c r="BC35">
-        <v>1000</v>
-      </c>
-      <c r="BE35">
-        <v>1000</v>
       </c>
       <c r="BF35" t="s">
         <v>1094</v>
@@ -45937,26 +45403,17 @@
       <c r="A36" t="s">
         <v>1427</v>
       </c>
-      <c r="B36" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F36">
-        <v>1035</v>
-      </c>
-      <c r="G36">
-        <v>1034</v>
-      </c>
-      <c r="I36" t="s">
-        <v>4313</v>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="F36" t="s">
+        <v>338</v>
+      </c>
+      <c r="G36" t="s">
+        <v>424</v>
       </c>
       <c r="J36" t="s">
-        <v>4347</v>
+        <v>1428</v>
       </c>
       <c r="L36" t="s">
         <v>193</v>
@@ -46048,9 +45505,7 @@
       <c r="AW36" t="s">
         <v>893</v>
       </c>
-      <c r="AX36" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX36"/>
       <c r="AY36" t="s">
         <v>780</v>
       </c>
@@ -46059,12 +45514,6 @@
       </c>
       <c r="BA36" t="s">
         <v>280</v>
-      </c>
-      <c r="BC36">
-        <v>1000</v>
-      </c>
-      <c r="BE36">
-        <v>1000</v>
       </c>
       <c r="BG36" t="s">
         <v>337</v>
@@ -46140,26 +45589,17 @@
       <c r="A37" t="s">
         <v>1462</v>
       </c>
-      <c r="B37" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F37">
-        <v>1036</v>
-      </c>
-      <c r="G37">
-        <v>1012</v>
-      </c>
-      <c r="I37" t="s">
-        <v>4313</v>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="F37" t="s">
+        <v>463</v>
+      </c>
+      <c r="G37" t="s">
+        <v>237</v>
       </c>
       <c r="J37" t="s">
-        <v>4348</v>
+        <v>1463</v>
       </c>
       <c r="L37" t="s">
         <v>193</v>
@@ -46257,17 +45697,9 @@
       <c r="AW37" t="s">
         <v>421</v>
       </c>
-      <c r="AX37" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX37"/>
       <c r="BA37" t="s">
         <v>191</v>
-      </c>
-      <c r="BC37">
-        <v>1000</v>
-      </c>
-      <c r="BE37">
-        <v>1000</v>
       </c>
       <c r="BG37" t="s">
         <v>337</v>
@@ -46340,26 +45772,17 @@
       <c r="A38" t="s">
         <v>1496</v>
       </c>
-      <c r="B38" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F38">
-        <v>1037</v>
-      </c>
-      <c r="G38">
-        <v>1059</v>
-      </c>
-      <c r="I38" t="s">
-        <v>4313</v>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="F38" t="s">
+        <v>504</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1497</v>
       </c>
       <c r="J38" t="s">
-        <v>4349</v>
+        <v>1498</v>
       </c>
       <c r="L38" t="s">
         <v>193</v>
@@ -46451,20 +45874,12 @@
       <c r="AW38" t="s">
         <v>461</v>
       </c>
-      <c r="AX38" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX38"/>
       <c r="AZ38" t="s">
         <v>191</v>
       </c>
       <c r="BA38" t="s">
         <v>191</v>
-      </c>
-      <c r="BC38">
-        <v>1000</v>
-      </c>
-      <c r="BE38">
-        <v>1000</v>
       </c>
       <c r="BG38" t="s">
         <v>337</v>
@@ -46543,26 +45958,17 @@
       <c r="A39" t="s">
         <v>1529</v>
       </c>
-      <c r="B39" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F39">
-        <v>1038</v>
-      </c>
-      <c r="G39">
-        <v>1036</v>
-      </c>
-      <c r="I39" t="s">
-        <v>4313</v>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="F39" t="s">
+        <v>430</v>
+      </c>
+      <c r="G39" t="s">
+        <v>463</v>
       </c>
       <c r="J39" t="s">
-        <v>4350</v>
+        <v>1530</v>
       </c>
       <c r="L39" t="s">
         <v>193</v>
@@ -46663,18 +46069,10 @@
       <c r="AW39" t="s">
         <v>336</v>
       </c>
-      <c r="AX39" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX39"/>
       <c r="BA39" t="s">
         <v>223</v>
       </c>
-      <c r="BC39">
-        <v>1000</v>
-      </c>
-      <c r="BE39">
-        <v>1000</v>
-      </c>
       <c r="BG39" t="s">
         <v>225</v>
       </c>
@@ -46742,30 +46140,21 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="40" spans="1:91">
+    <row r="40" spans="1:92">
       <c r="A40" t="s">
         <v>1561</v>
       </c>
-      <c r="B40" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F40">
-        <v>1039</v>
-      </c>
-      <c r="G40">
-        <v>1051</v>
-      </c>
-      <c r="I40" t="s">
-        <v>4313</v>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="F40" t="s">
+        <v>431</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1562</v>
       </c>
       <c r="J40" t="s">
-        <v>4351</v>
+        <v>1563</v>
       </c>
       <c r="L40" t="s">
         <v>193</v>
@@ -46857,18 +46246,10 @@
       <c r="AW40" t="s">
         <v>461</v>
       </c>
-      <c r="AX40" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX40"/>
       <c r="BA40" t="s">
         <v>223</v>
       </c>
-      <c r="BC40">
-        <v>1000</v>
-      </c>
-      <c r="BE40">
-        <v>1000</v>
-      </c>
       <c r="BG40" t="s">
         <v>337</v>
       </c>
@@ -46940,32 +46321,26 @@
       </c>
       <c r="CM40" t="s">
         <v>1596</v>
+      </c>
+      <c r="CN40" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="41" spans="1:93">
       <c r="A41" t="s">
         <v>1598</v>
       </c>
-      <c r="B41" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F41">
-        <v>1040</v>
-      </c>
-      <c r="G41">
-        <v>1030</v>
-      </c>
-      <c r="I41" t="s">
-        <v>4313</v>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="F41" t="s">
+        <v>432</v>
+      </c>
+      <c r="G41" t="s">
+        <v>994</v>
       </c>
       <c r="J41" t="s">
-        <v>4352</v>
+        <v>1599</v>
       </c>
       <c r="L41" t="s">
         <v>193</v>
@@ -47057,17 +46432,9 @@
       <c r="AW41" t="s">
         <v>421</v>
       </c>
-      <c r="AX41" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX41"/>
       <c r="BA41" t="s">
         <v>223</v>
-      </c>
-      <c r="BC41">
-        <v>1000</v>
-      </c>
-      <c r="BE41">
-        <v>1000</v>
       </c>
       <c r="BG41" t="s">
         <v>337</v>
@@ -47140,26 +46507,17 @@
       <c r="A42" t="s">
         <v>1633</v>
       </c>
-      <c r="B42" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F42">
-        <v>1041</v>
-      </c>
-      <c r="G42">
-        <v>1027</v>
-      </c>
-      <c r="I42" t="s">
-        <v>4313</v>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="F42" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" t="s">
+        <v>282</v>
       </c>
       <c r="J42" t="s">
-        <v>4353</v>
+        <v>1634</v>
       </c>
       <c r="L42" t="s">
         <v>193</v>
@@ -47260,24 +46618,17 @@
       <c r="AW42" t="s">
         <v>381</v>
       </c>
-      <c r="AX42" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX42"/>
       <c r="AY42" t="s">
         <v>195</v>
       </c>
       <c r="BA42" t="s">
         <v>191</v>
       </c>
-      <c r="BC42">
-        <v>1000</v>
-      </c>
       <c r="BD42" t="s">
         <v>464</v>
       </c>
-      <c r="BE42">
-        <v>1000</v>
-      </c>
+      <c r="BE42"/>
       <c r="BG42" t="s">
         <v>225</v>
       </c>
@@ -47340,26 +46691,17 @@
       <c r="A43" t="s">
         <v>1662</v>
       </c>
-      <c r="B43" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F43">
-        <v>1042</v>
-      </c>
-      <c r="G43">
-        <v>1052</v>
-      </c>
-      <c r="I43" t="s">
-        <v>4313</v>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="F43" t="s">
+        <v>781</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1663</v>
       </c>
       <c r="J43" t="s">
-        <v>4354</v>
+        <v>1664</v>
       </c>
       <c r="L43" t="s">
         <v>193</v>
@@ -47457,17 +46799,9 @@
       <c r="AW43" t="s">
         <v>1093</v>
       </c>
-      <c r="AX43" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX43"/>
       <c r="BA43" t="s">
         <v>280</v>
-      </c>
-      <c r="BC43">
-        <v>1000</v>
-      </c>
-      <c r="BE43">
-        <v>1000</v>
       </c>
       <c r="BG43" t="s">
         <v>225</v>
@@ -47552,26 +46886,17 @@
       <c r="A44" t="s">
         <v>1696</v>
       </c>
-      <c r="B44" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F44">
-        <v>1043</v>
-      </c>
-      <c r="G44">
-        <v>1062</v>
-      </c>
-      <c r="I44" t="s">
-        <v>4313</v>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="F44" t="s">
+        <v>922</v>
+      </c>
+      <c r="G44" t="s">
+        <v>547</v>
       </c>
       <c r="J44" t="s">
-        <v>4355</v>
+        <v>1697</v>
       </c>
       <c r="L44" t="s">
         <v>193</v>
@@ -47666,21 +46991,13 @@
       <c r="AW44" t="s">
         <v>1129</v>
       </c>
-      <c r="AX44" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX44"/>
       <c r="AY44" t="s">
         <v>743</v>
       </c>
       <c r="BA44" t="s">
         <v>191</v>
       </c>
-      <c r="BC44">
-        <v>1000</v>
-      </c>
-      <c r="BE44">
-        <v>1000</v>
-      </c>
       <c r="BG44" t="s">
         <v>337</v>
       </c>
@@ -47754,30 +47071,21 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="45" spans="1:92">
+    <row r="45" spans="1:97">
       <c r="A45" t="s">
         <v>1728</v>
       </c>
-      <c r="B45" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F45">
-        <v>1044</v>
-      </c>
-      <c r="G45">
-        <v>1080</v>
-      </c>
-      <c r="I45" t="s">
-        <v>4313</v>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="F45" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G45" t="s">
+        <v>476</v>
       </c>
       <c r="J45" t="s">
-        <v>4356</v>
+        <v>1730</v>
       </c>
       <c r="L45" t="s">
         <v>193</v>
@@ -47878,24 +47186,17 @@
       <c r="AW45" t="s">
         <v>336</v>
       </c>
-      <c r="AX45" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX45"/>
       <c r="AZ45" t="s">
         <v>191</v>
       </c>
       <c r="BA45" t="s">
         <v>191</v>
       </c>
-      <c r="BC45">
-        <v>1000</v>
-      </c>
       <c r="BD45" t="s">
         <v>224</v>
       </c>
-      <c r="BE45">
-        <v>1000</v>
-      </c>
+      <c r="BE45"/>
       <c r="BG45" t="s">
         <v>225</v>
       </c>
@@ -47958,32 +47259,38 @@
       </c>
       <c r="CN45" t="s">
         <v>1760</v>
+      </c>
+      <c r="CO45" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CP45" t="s">
+        <v>1762</v>
+      </c>
+      <c r="CQ45" t="s">
+        <v>1763</v>
+      </c>
+      <c r="CR45" t="s">
+        <v>1764</v>
+      </c>
+      <c r="CS45" t="s">
+        <v>1765</v>
       </c>
     </row>
     <row r="46" spans="1:95">
       <c r="A46" t="s">
         <v>1766</v>
       </c>
-      <c r="B46" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F46">
-        <v>1045</v>
-      </c>
-      <c r="G46">
-        <v>1035</v>
-      </c>
-      <c r="I46" t="s">
-        <v>4313</v>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="F46" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G46" t="s">
+        <v>338</v>
       </c>
       <c r="J46" t="s">
-        <v>4357</v>
+        <v>1767</v>
       </c>
       <c r="L46" t="s">
         <v>193</v>
@@ -48075,17 +47382,9 @@
       <c r="AW46" t="s">
         <v>1789</v>
       </c>
-      <c r="AX46" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX46"/>
       <c r="BA46" t="s">
         <v>223</v>
-      </c>
-      <c r="BC46">
-        <v>1000</v>
-      </c>
-      <c r="BE46">
-        <v>1000</v>
       </c>
       <c r="BF46" t="s">
         <v>464</v>
@@ -48167,26 +47466,17 @@
       <c r="A47" t="s">
         <v>1800</v>
       </c>
-      <c r="B47" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F47">
-        <v>1046</v>
-      </c>
-      <c r="G47">
-        <v>1086</v>
-      </c>
-      <c r="I47" t="s">
-        <v>4313</v>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="F47" t="s">
+        <v>513</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1801</v>
       </c>
       <c r="J47" t="s">
-        <v>4358</v>
+        <v>1802</v>
       </c>
       <c r="L47" t="s">
         <v>193</v>
@@ -48287,24 +47577,17 @@
       <c r="AW47" t="s">
         <v>336</v>
       </c>
-      <c r="AX47" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX47"/>
       <c r="AY47" t="s">
         <v>780</v>
       </c>
       <c r="BA47" t="s">
         <v>191</v>
       </c>
-      <c r="BC47">
-        <v>1000</v>
-      </c>
       <c r="BD47" t="s">
         <v>224</v>
       </c>
-      <c r="BE47">
-        <v>1000</v>
-      </c>
+      <c r="BE47"/>
       <c r="BG47" t="s">
         <v>337</v>
       </c>
@@ -48373,26 +47656,17 @@
       <c r="A48" t="s">
         <v>1834</v>
       </c>
-      <c r="B48" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F48">
-        <v>1047</v>
-      </c>
-      <c r="G48">
-        <v>1029</v>
-      </c>
-      <c r="I48" t="s">
-        <v>4313</v>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="F48" t="s">
+        <v>353</v>
+      </c>
+      <c r="G48" t="s">
+        <v>226</v>
       </c>
       <c r="J48" t="s">
-        <v>4359</v>
+        <v>1835</v>
       </c>
       <c r="L48" t="s">
         <v>193</v>
@@ -48487,17 +47761,9 @@
       <c r="AW48" t="s">
         <v>1262</v>
       </c>
-      <c r="AX48" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX48"/>
       <c r="BA48" t="s">
         <v>666</v>
-      </c>
-      <c r="BC48">
-        <v>1000</v>
-      </c>
-      <c r="BE48">
-        <v>1000</v>
       </c>
       <c r="BG48" t="s">
         <v>337</v>
@@ -48576,26 +47842,17 @@
       <c r="A49" t="s">
         <v>1866</v>
       </c>
-      <c r="B49" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F49">
-        <v>1048</v>
-      </c>
-      <c r="G49">
-        <v>1082</v>
-      </c>
-      <c r="I49" t="s">
-        <v>4313</v>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="F49" t="s">
+        <v>782</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1594</v>
       </c>
       <c r="J49" t="s">
-        <v>4360</v>
+        <v>1867</v>
       </c>
       <c r="L49" t="s">
         <v>193</v>
@@ -48684,21 +47941,14 @@
       <c r="AW49" t="s">
         <v>921</v>
       </c>
-      <c r="AX49" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX49"/>
       <c r="BA49" t="s">
         <v>253</v>
       </c>
-      <c r="BC49">
-        <v>1000</v>
-      </c>
       <c r="BD49" t="s">
         <v>464</v>
       </c>
-      <c r="BE49">
-        <v>1000</v>
-      </c>
+      <c r="BE49"/>
       <c r="BG49" t="s">
         <v>337</v>
       </c>
@@ -48773,26 +48023,17 @@
       <c r="A50" t="s">
         <v>1898</v>
       </c>
-      <c r="B50" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F50">
-        <v>1049</v>
-      </c>
-      <c r="G50">
-        <v>1058</v>
-      </c>
-      <c r="I50" t="s">
-        <v>4313</v>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="F50" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1899</v>
       </c>
       <c r="J50" t="s">
-        <v>4361</v>
+        <v>1900</v>
       </c>
       <c r="L50" t="s">
         <v>193</v>
@@ -48884,17 +48125,9 @@
       <c r="AW50" t="s">
         <v>222</v>
       </c>
-      <c r="AX50" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX50"/>
       <c r="BA50" t="s">
         <v>223</v>
-      </c>
-      <c r="BC50">
-        <v>1000</v>
-      </c>
-      <c r="BE50">
-        <v>1000</v>
       </c>
       <c r="BG50" t="s">
         <v>225</v>
@@ -48982,26 +48215,17 @@
       <c r="A51" t="s">
         <v>1935</v>
       </c>
-      <c r="B51" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F51">
-        <v>1050</v>
-      </c>
-      <c r="G51">
-        <v>1004</v>
-      </c>
-      <c r="I51" t="s">
-        <v>4313</v>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="F51" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G51" t="s">
+        <v>298</v>
       </c>
       <c r="J51" t="s">
-        <v>4362</v>
+        <v>1937</v>
       </c>
       <c r="L51" t="s">
         <v>193</v>
@@ -49093,20 +48317,12 @@
       <c r="AW51" t="s">
         <v>336</v>
       </c>
-      <c r="AX51" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX51"/>
       <c r="AY51" t="s">
         <v>780</v>
       </c>
       <c r="BA51" t="s">
         <v>280</v>
-      </c>
-      <c r="BC51">
-        <v>1000</v>
-      </c>
-      <c r="BE51">
-        <v>1000</v>
       </c>
       <c r="BG51" t="s">
         <v>337</v>
@@ -49179,26 +48395,17 @@
       <c r="A52" t="s">
         <v>1967</v>
       </c>
-      <c r="B52" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F52">
-        <v>1051</v>
-      </c>
-      <c r="G52">
-        <v>1031</v>
-      </c>
-      <c r="I52" t="s">
-        <v>4313</v>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="F52" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G52" t="s">
+        <v>283</v>
       </c>
       <c r="J52" t="s">
-        <v>4363</v>
+        <v>1968</v>
       </c>
       <c r="L52" t="s">
         <v>193</v>
@@ -49296,17 +48503,9 @@
       <c r="AW52" t="s">
         <v>222</v>
       </c>
-      <c r="AX52" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX52"/>
       <c r="BA52" t="s">
         <v>223</v>
-      </c>
-      <c r="BC52">
-        <v>1000</v>
-      </c>
-      <c r="BE52">
-        <v>1000</v>
       </c>
       <c r="BG52" t="s">
         <v>225</v>
@@ -49373,26 +48572,17 @@
       <c r="A53" t="s">
         <v>1998</v>
       </c>
-      <c r="B53" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C53" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F53">
-        <v>1052</v>
-      </c>
-      <c r="G53">
-        <v>1038</v>
-      </c>
-      <c r="I53" t="s">
-        <v>4313</v>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="F53" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G53" t="s">
+        <v>430</v>
       </c>
       <c r="J53" t="s">
-        <v>4364</v>
+        <v>1999</v>
       </c>
       <c r="L53" t="s">
         <v>193</v>
@@ -49484,17 +48674,9 @@
       <c r="AW53" t="s">
         <v>921</v>
       </c>
-      <c r="AX53" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX53"/>
       <c r="BA53" t="s">
         <v>223</v>
-      </c>
-      <c r="BC53">
-        <v>1000</v>
-      </c>
-      <c r="BE53">
-        <v>1000</v>
       </c>
       <c r="BG53" t="s">
         <v>337</v>
@@ -49567,26 +48749,17 @@
       <c r="A54" t="s">
         <v>2029</v>
       </c>
-      <c r="B54" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C54" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F54">
-        <v>1053</v>
-      </c>
-      <c r="G54">
-        <v>1032</v>
-      </c>
-      <c r="I54" t="s">
-        <v>4313</v>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="F54" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G54" t="s">
+        <v>578</v>
       </c>
       <c r="J54" t="s">
-        <v>4365</v>
+        <v>2030</v>
       </c>
       <c r="L54" t="s">
         <v>193</v>
@@ -49681,17 +48854,9 @@
       <c r="AW54" t="s">
         <v>993</v>
       </c>
-      <c r="AX54" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX54"/>
       <c r="BA54" t="s">
         <v>223</v>
-      </c>
-      <c r="BC54">
-        <v>1000</v>
-      </c>
-      <c r="BE54">
-        <v>1000</v>
       </c>
       <c r="BG54" t="s">
         <v>337</v>
@@ -49767,26 +48932,17 @@
       <c r="A55" t="s">
         <v>2056</v>
       </c>
-      <c r="B55" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C55" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F55">
-        <v>1054</v>
-      </c>
-      <c r="G55">
-        <v>1061</v>
-      </c>
-      <c r="I55" t="s">
-        <v>4313</v>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="F55" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2058</v>
       </c>
       <c r="J55" t="s">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="L55" t="s">
         <v>193</v>
@@ -49881,9 +49037,7 @@
       <c r="AW55" t="s">
         <v>921</v>
       </c>
-      <c r="AX55" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX55"/>
       <c r="AY55" t="s">
         <v>195</v>
       </c>
@@ -49892,12 +49046,6 @@
       </c>
       <c r="BA55" t="s">
         <v>191</v>
-      </c>
-      <c r="BC55">
-        <v>1000</v>
-      </c>
-      <c r="BE55">
-        <v>1000</v>
       </c>
       <c r="BG55" t="s">
         <v>225</v>
@@ -49964,26 +49112,17 @@
       <c r="A56" t="s">
         <v>2091</v>
       </c>
-      <c r="B56" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F56">
-        <v>1055</v>
-      </c>
-      <c r="G56">
-        <v>1033</v>
-      </c>
-      <c r="I56" t="s">
-        <v>4313</v>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="F56" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G56" t="s">
+        <v>227</v>
       </c>
       <c r="J56" t="s">
-        <v>4367</v>
+        <v>2093</v>
       </c>
       <c r="L56" t="s">
         <v>193</v>
@@ -50081,17 +49220,9 @@
       <c r="AW56" t="s">
         <v>993</v>
       </c>
-      <c r="AX56" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX56"/>
       <c r="BA56" t="s">
         <v>253</v>
-      </c>
-      <c r="BC56">
-        <v>1000</v>
-      </c>
-      <c r="BE56">
-        <v>1000</v>
       </c>
       <c r="BG56" t="s">
         <v>225</v>
@@ -50158,26 +49289,17 @@
       <c r="A57" t="s">
         <v>2124</v>
       </c>
-      <c r="B57" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C57" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F57">
-        <v>1056</v>
-      </c>
-      <c r="G57">
-        <v>1068</v>
-      </c>
-      <c r="I57" t="s">
-        <v>4313</v>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="F57" t="s">
+        <v>2125</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1928</v>
       </c>
       <c r="J57" t="s">
-        <v>4368</v>
+        <v>2126</v>
       </c>
       <c r="L57" t="s">
         <v>193</v>
@@ -50278,21 +49400,14 @@
       <c r="AW57" t="s">
         <v>461</v>
       </c>
-      <c r="AX57" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX57"/>
       <c r="BA57" t="s">
         <v>223</v>
       </c>
-      <c r="BC57">
-        <v>1000</v>
-      </c>
       <c r="BD57" t="s">
         <v>224</v>
       </c>
-      <c r="BE57">
-        <v>1000</v>
-      </c>
+      <c r="BE57"/>
       <c r="BF57" t="s">
         <v>223</v>
       </c>
@@ -50373,26 +49488,17 @@
       <c r="A58" t="s">
         <v>2157</v>
       </c>
-      <c r="B58" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F58">
-        <v>1057</v>
-      </c>
-      <c r="G58">
-        <v>1057</v>
-      </c>
-      <c r="I58" t="s">
-        <v>4313</v>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="F58" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2153</v>
       </c>
       <c r="J58" t="s">
-        <v>4369</v>
+        <v>2158</v>
       </c>
       <c r="L58" t="s">
         <v>193</v>
@@ -50490,17 +49596,9 @@
       <c r="AW58" t="s">
         <v>1093</v>
       </c>
-      <c r="AX58" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX58"/>
       <c r="BA58" t="s">
         <v>191</v>
-      </c>
-      <c r="BC58">
-        <v>1000</v>
-      </c>
-      <c r="BE58">
-        <v>1000</v>
       </c>
       <c r="BG58" t="s">
         <v>225</v>
@@ -50570,26 +49668,17 @@
       <c r="A59" t="s">
         <v>2185</v>
       </c>
-      <c r="B59" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C59" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F59">
-        <v>1058</v>
-      </c>
-      <c r="G59">
-        <v>1037</v>
-      </c>
-      <c r="I59" t="s">
-        <v>4313</v>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="F59" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G59" t="s">
+        <v>504</v>
       </c>
       <c r="J59" t="s">
-        <v>4370</v>
+        <v>2186</v>
       </c>
       <c r="L59" t="s">
         <v>193</v>
@@ -50684,17 +49773,9 @@
       <c r="AW59" t="s">
         <v>1129</v>
       </c>
-      <c r="AX59" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX59"/>
       <c r="BA59" t="s">
         <v>646</v>
-      </c>
-      <c r="BC59">
-        <v>1000</v>
-      </c>
-      <c r="BE59">
-        <v>1000</v>
       </c>
       <c r="BG59" t="s">
         <v>337</v>
@@ -50767,26 +49848,17 @@
       <c r="A60" t="s">
         <v>2215</v>
       </c>
-      <c r="B60" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C60" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F60">
-        <v>1059</v>
-      </c>
-      <c r="G60">
-        <v>1054</v>
-      </c>
-      <c r="I60" t="s">
-        <v>4313</v>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="F60" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2057</v>
       </c>
       <c r="J60" t="s">
-        <v>4371</v>
+        <v>2216</v>
       </c>
       <c r="L60" t="s">
         <v>193</v>
@@ -50878,20 +49950,12 @@
       <c r="AW60" t="s">
         <v>461</v>
       </c>
-      <c r="AX60" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX60"/>
       <c r="AZ60" t="s">
         <v>191</v>
       </c>
       <c r="BA60" t="s">
         <v>280</v>
-      </c>
-      <c r="BC60">
-        <v>1000</v>
-      </c>
-      <c r="BE60">
-        <v>1000</v>
       </c>
       <c r="BG60" t="s">
         <v>337</v>
@@ -50961,26 +50025,17 @@
       <c r="A61" t="s">
         <v>2246</v>
       </c>
-      <c r="B61" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C61" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F61">
-        <v>1060</v>
-      </c>
-      <c r="G61">
-        <v>1042</v>
-      </c>
-      <c r="I61" t="s">
-        <v>4313</v>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="F61" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G61" t="s">
+        <v>781</v>
       </c>
       <c r="J61" t="s">
-        <v>4372</v>
+        <v>2247</v>
       </c>
       <c r="L61" t="s">
         <v>193</v>
@@ -51075,21 +50130,14 @@
       <c r="AW61" t="s">
         <v>993</v>
       </c>
-      <c r="AX61" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX61"/>
       <c r="BA61" t="s">
         <v>253</v>
       </c>
-      <c r="BC61">
-        <v>1000</v>
-      </c>
       <c r="BD61" t="s">
         <v>2271</v>
       </c>
-      <c r="BE61">
-        <v>1000</v>
-      </c>
+      <c r="BE61"/>
       <c r="BG61" t="s">
         <v>225</v>
       </c>
@@ -51152,26 +50200,17 @@
       <c r="A62" t="s">
         <v>2279</v>
       </c>
-      <c r="B62" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F62">
-        <v>1061</v>
-      </c>
-      <c r="G62">
-        <v>1053</v>
-      </c>
-      <c r="I62" t="s">
-        <v>4313</v>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="F62" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1224</v>
       </c>
       <c r="J62" t="s">
-        <v>4373</v>
+        <v>2280</v>
       </c>
       <c r="L62" t="s">
         <v>193</v>
@@ -51269,17 +50308,9 @@
       <c r="AW62" t="s">
         <v>1262</v>
       </c>
-      <c r="AX62" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX62"/>
       <c r="BA62" t="s">
         <v>223</v>
-      </c>
-      <c r="BC62">
-        <v>1000</v>
-      </c>
-      <c r="BE62">
-        <v>1000</v>
       </c>
       <c r="BG62" t="s">
         <v>225</v>
@@ -51346,26 +50377,17 @@
       <c r="A63" t="s">
         <v>2307</v>
       </c>
-      <c r="B63" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C63" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D63" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F63">
-        <v>1062</v>
-      </c>
-      <c r="G63">
-        <v>1064</v>
-      </c>
-      <c r="I63" t="s">
-        <v>4313</v>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="F63" t="s">
+        <v>547</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1924</v>
       </c>
       <c r="J63" t="s">
-        <v>4374</v>
+        <v>2308</v>
       </c>
       <c r="L63" t="s">
         <v>193</v>
@@ -51460,21 +50482,14 @@
       <c r="AW63" t="s">
         <v>1129</v>
       </c>
-      <c r="AX63" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX63"/>
       <c r="BA63" t="s">
         <v>298</v>
       </c>
-      <c r="BC63">
-        <v>1000</v>
-      </c>
       <c r="BD63" t="s">
         <v>2331</v>
       </c>
-      <c r="BE63">
-        <v>1000</v>
-      </c>
+      <c r="BE63"/>
       <c r="BF63" t="s">
         <v>464</v>
       </c>
@@ -51546,26 +50561,17 @@
       <c r="A64" t="s">
         <v>2333</v>
       </c>
-      <c r="B64" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C64" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F64">
-        <v>1063</v>
-      </c>
-      <c r="G64">
-        <v>1041</v>
-      </c>
-      <c r="I64" t="s">
-        <v>4313</v>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="F64" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G64" t="s">
+        <v>339</v>
       </c>
       <c r="J64" t="s">
-        <v>4375</v>
+        <v>2334</v>
       </c>
       <c r="L64" t="s">
         <v>193</v>
@@ -51654,21 +50660,14 @@
       <c r="AW64" t="s">
         <v>1262</v>
       </c>
-      <c r="AX64" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX64"/>
       <c r="BA64" t="s">
         <v>223</v>
       </c>
-      <c r="BC64">
-        <v>1000</v>
-      </c>
       <c r="BD64" t="s">
         <v>422</v>
       </c>
-      <c r="BE64">
-        <v>1000</v>
-      </c>
+      <c r="BE64"/>
       <c r="BF64" t="s">
         <v>1094</v>
       </c>
@@ -51740,26 +50739,17 @@
       <c r="A65" t="s">
         <v>2362</v>
       </c>
-      <c r="B65" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C65" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F65">
-        <v>1064</v>
-      </c>
-      <c r="G65">
-        <v>1055</v>
-      </c>
-      <c r="I65" t="s">
-        <v>4313</v>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="F65" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2092</v>
       </c>
       <c r="J65" t="s">
-        <v>4376</v>
+        <v>2363</v>
       </c>
       <c r="L65" t="s">
         <v>193</v>
@@ -51851,17 +50841,9 @@
       <c r="AW65" t="s">
         <v>461</v>
       </c>
-      <c r="AX65" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX65"/>
       <c r="BA65" t="s">
         <v>191</v>
-      </c>
-      <c r="BC65">
-        <v>1000</v>
-      </c>
-      <c r="BE65">
-        <v>1000</v>
       </c>
       <c r="BG65" t="s">
         <v>337</v>
@@ -51931,26 +50913,17 @@
       <c r="A66" t="s">
         <v>2392</v>
       </c>
-      <c r="B66" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C66" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F66">
-        <v>1065</v>
-      </c>
-      <c r="G66">
-        <v>1056</v>
-      </c>
-      <c r="I66" t="s">
-        <v>4313</v>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="F66" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2125</v>
       </c>
       <c r="J66" t="s">
-        <v>4377</v>
+        <v>2393</v>
       </c>
       <c r="L66" t="s">
         <v>193</v>
@@ -52042,24 +51015,17 @@
       <c r="AW66" t="s">
         <v>381</v>
       </c>
-      <c r="AX66" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX66"/>
       <c r="AY66" t="s">
         <v>195</v>
       </c>
       <c r="BA66" t="s">
         <v>191</v>
       </c>
-      <c r="BC66">
-        <v>1000</v>
-      </c>
       <c r="BD66" t="s">
         <v>2416</v>
       </c>
-      <c r="BE66">
-        <v>1000</v>
-      </c>
+      <c r="BE66"/>
       <c r="BG66" t="s">
         <v>337</v>
       </c>
@@ -52125,26 +51091,17 @@
       <c r="A67" t="s">
         <v>2423</v>
       </c>
-      <c r="B67" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C67" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F67">
-        <v>1066</v>
-      </c>
-      <c r="G67">
-        <v>1050</v>
-      </c>
-      <c r="I67" t="s">
-        <v>4313</v>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="F67" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1936</v>
       </c>
       <c r="J67" t="s">
-        <v>4378</v>
+        <v>2424</v>
       </c>
       <c r="L67" t="s">
         <v>193</v>
@@ -52230,17 +51187,9 @@
       <c r="AW67" t="s">
         <v>381</v>
       </c>
-      <c r="AX67" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX67"/>
       <c r="BA67" t="s">
         <v>280</v>
-      </c>
-      <c r="BC67">
-        <v>1000</v>
-      </c>
-      <c r="BE67">
-        <v>1000</v>
       </c>
       <c r="BF67" t="s">
         <v>464</v>
@@ -52319,26 +51268,17 @@
       <c r="A68" t="s">
         <v>2453</v>
       </c>
-      <c r="B68" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C68" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F68">
-        <v>1067</v>
-      </c>
-      <c r="G68">
-        <v>1044</v>
-      </c>
-      <c r="I68" t="s">
-        <v>4313</v>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="F68" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1729</v>
       </c>
       <c r="J68" t="s">
-        <v>4379</v>
+        <v>2454</v>
       </c>
       <c r="L68" t="s">
         <v>193</v>
@@ -52439,21 +51379,14 @@
       <c r="AW68" t="s">
         <v>461</v>
       </c>
-      <c r="AX68" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX68"/>
       <c r="BA68" t="s">
         <v>191</v>
       </c>
-      <c r="BC68">
-        <v>1000</v>
-      </c>
       <c r="BD68" t="s">
         <v>703</v>
       </c>
-      <c r="BE68">
-        <v>1000</v>
-      </c>
+      <c r="BE68"/>
       <c r="BG68" t="s">
         <v>225</v>
       </c>
@@ -52528,26 +51461,17 @@
       <c r="A69" t="s">
         <v>2485</v>
       </c>
-      <c r="B69" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C69" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F69">
-        <v>1069</v>
-      </c>
-      <c r="G69">
-        <v>1045</v>
-      </c>
-      <c r="I69" t="s">
-        <v>4313</v>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="F69" t="s">
+        <v>386</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1352</v>
       </c>
       <c r="J69" t="s">
-        <v>4380</v>
+        <v>2486</v>
       </c>
       <c r="L69" t="s">
         <v>193</v>
@@ -52648,17 +51572,9 @@
       <c r="AW69" t="s">
         <v>893</v>
       </c>
-      <c r="AX69" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX69"/>
       <c r="BA69" t="s">
         <v>297</v>
-      </c>
-      <c r="BC69">
-        <v>1000</v>
-      </c>
-      <c r="BE69">
-        <v>1000</v>
       </c>
       <c r="BG69" t="s">
         <v>225</v>
@@ -52728,26 +51644,17 @@
       <c r="A70" t="s">
         <v>2519</v>
       </c>
-      <c r="B70" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F70">
-        <v>1068</v>
-      </c>
-      <c r="G70">
-        <v>1043</v>
-      </c>
-      <c r="I70" t="s">
-        <v>4313</v>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="F70" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G70" t="s">
+        <v>922</v>
       </c>
       <c r="J70" t="s">
-        <v>4381</v>
+        <v>2520</v>
       </c>
       <c r="L70" t="s">
         <v>193</v>
@@ -52845,17 +51752,9 @@
       <c r="AW70" t="s">
         <v>893</v>
       </c>
-      <c r="AX70" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX70"/>
       <c r="BA70" t="s">
         <v>280</v>
-      </c>
-      <c r="BC70">
-        <v>1000</v>
-      </c>
-      <c r="BE70">
-        <v>1000</v>
       </c>
       <c r="BG70" t="s">
         <v>337</v>
@@ -52925,26 +51824,17 @@
       <c r="A71" t="s">
         <v>2553</v>
       </c>
-      <c r="B71" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C71" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F71">
-        <v>1070</v>
-      </c>
-      <c r="G71">
-        <v>1063</v>
-      </c>
-      <c r="I71" t="s">
-        <v>4313</v>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="F71" t="s">
+        <v>304</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1923</v>
       </c>
       <c r="J71" t="s">
-        <v>4382</v>
+        <v>2554</v>
       </c>
       <c r="L71" t="s">
         <v>193</v>
@@ -53033,21 +51923,14 @@
       <c r="AW71" t="s">
         <v>222</v>
       </c>
-      <c r="AX71" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX71"/>
       <c r="BA71" t="s">
         <v>191</v>
       </c>
-      <c r="BC71">
-        <v>1000</v>
-      </c>
       <c r="BD71" t="s">
         <v>464</v>
       </c>
-      <c r="BE71">
-        <v>1000</v>
-      </c>
+      <c r="BE71"/>
       <c r="BG71" t="s">
         <v>225</v>
       </c>
@@ -53110,26 +51993,17 @@
       <c r="A72" t="s">
         <v>2578</v>
       </c>
-      <c r="B72" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C72" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F72">
-        <v>1071</v>
-      </c>
-      <c r="G72">
-        <v>1066</v>
-      </c>
-      <c r="I72" t="s">
-        <v>4313</v>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="F72" t="s">
+        <v>387</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1926</v>
       </c>
       <c r="J72" t="s">
-        <v>4383</v>
+        <v>2579</v>
       </c>
       <c r="L72" t="s">
         <v>193</v>
@@ -53221,21 +52095,14 @@
       <c r="AW72" t="s">
         <v>461</v>
       </c>
-      <c r="AX72" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX72"/>
       <c r="BA72" t="s">
         <v>707</v>
       </c>
-      <c r="BC72">
-        <v>1000</v>
-      </c>
       <c r="BD72" t="s">
         <v>2331</v>
       </c>
-      <c r="BE72">
-        <v>1000</v>
-      </c>
+      <c r="BE72"/>
       <c r="BG72" t="s">
         <v>225</v>
       </c>
@@ -53304,26 +52171,17 @@
       <c r="A73" t="s">
         <v>2610</v>
       </c>
-      <c r="B73" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C73" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D73" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F73">
-        <v>1072</v>
-      </c>
-      <c r="G73">
-        <v>1078</v>
-      </c>
-      <c r="I73" t="s">
-        <v>4313</v>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="F73" t="s">
+        <v>388</v>
+      </c>
+      <c r="G73" t="s">
+        <v>474</v>
       </c>
       <c r="J73" t="s">
-        <v>4384</v>
+        <v>2611</v>
       </c>
       <c r="L73" t="s">
         <v>193</v>
@@ -53409,20 +52267,12 @@
       <c r="AW73" t="s">
         <v>1093</v>
       </c>
-      <c r="AX73" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX73"/>
       <c r="AZ73" t="s">
         <v>191</v>
       </c>
       <c r="BA73" t="s">
         <v>253</v>
-      </c>
-      <c r="BC73">
-        <v>1000</v>
-      </c>
-      <c r="BE73">
-        <v>1000</v>
       </c>
       <c r="BG73" t="s">
         <v>337</v>
@@ -53498,26 +52348,17 @@
       <c r="A74" t="s">
         <v>2640</v>
       </c>
-      <c r="B74" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C74" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F74">
-        <v>1073</v>
-      </c>
-      <c r="G74">
-        <v>1060</v>
-      </c>
-      <c r="I74" t="s">
-        <v>4313</v>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="F74" t="s">
+        <v>389</v>
+      </c>
+      <c r="G74" t="s">
+        <v>2154</v>
       </c>
       <c r="J74" t="s">
-        <v>4385</v>
+        <v>2641</v>
       </c>
       <c r="L74" t="s">
         <v>193</v>
@@ -53609,20 +52450,12 @@
       <c r="AW74" t="s">
         <v>336</v>
       </c>
-      <c r="AX74" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX74"/>
       <c r="AZ74" t="s">
         <v>191</v>
       </c>
       <c r="BA74" t="s">
         <v>280</v>
-      </c>
-      <c r="BC74">
-        <v>1000</v>
-      </c>
-      <c r="BE74">
-        <v>1000</v>
       </c>
       <c r="BG74" t="s">
         <v>225</v>
@@ -53701,26 +52534,17 @@
       <c r="A75" t="s">
         <v>2672</v>
       </c>
-      <c r="B75" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C75" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F75">
-        <v>1074</v>
-      </c>
-      <c r="G75">
-        <v>1067</v>
-      </c>
-      <c r="I75" t="s">
-        <v>4313</v>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="F75" t="s">
+        <v>390</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1927</v>
       </c>
       <c r="J75" t="s">
-        <v>4386</v>
+        <v>2673</v>
       </c>
       <c r="L75" t="s">
         <v>193</v>
@@ -53812,17 +52636,9 @@
       <c r="AW75" t="s">
         <v>421</v>
       </c>
-      <c r="AX75" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX75"/>
       <c r="BA75" t="s">
         <v>223</v>
-      </c>
-      <c r="BC75">
-        <v>1000</v>
-      </c>
-      <c r="BE75">
-        <v>1000</v>
       </c>
       <c r="BG75" t="s">
         <v>337</v>
@@ -53922,26 +52738,17 @@
       <c r="A76" t="s">
         <v>2713</v>
       </c>
-      <c r="B76" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C76" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F76">
-        <v>1075</v>
-      </c>
-      <c r="G76">
-        <v>1065</v>
-      </c>
-      <c r="I76" t="s">
-        <v>4313</v>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="F76" t="s">
+        <v>471</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1925</v>
       </c>
       <c r="J76" t="s">
-        <v>4387</v>
+        <v>2714</v>
       </c>
       <c r="L76" t="s">
         <v>193</v>
@@ -54027,17 +52834,9 @@
       <c r="AW76" t="s">
         <v>461</v>
       </c>
-      <c r="AX76" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX76"/>
       <c r="BA76" t="s">
         <v>280</v>
-      </c>
-      <c r="BC76">
-        <v>1000</v>
-      </c>
-      <c r="BE76">
-        <v>1000</v>
       </c>
       <c r="BG76" t="s">
         <v>337</v>
@@ -54110,26 +52909,17 @@
       <c r="A77" t="s">
         <v>2738</v>
       </c>
-      <c r="B77" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C77" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D77" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F77">
-        <v>1076</v>
-      </c>
-      <c r="G77">
-        <v>1069</v>
-      </c>
-      <c r="I77" t="s">
-        <v>4313</v>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="F77" t="s">
+        <v>472</v>
+      </c>
+      <c r="G77" t="s">
+        <v>386</v>
       </c>
       <c r="J77" t="s">
-        <v>4388</v>
+        <v>2739</v>
       </c>
       <c r="L77" t="s">
         <v>193</v>
@@ -54224,21 +53014,14 @@
       <c r="AW77" t="s">
         <v>1129</v>
       </c>
-      <c r="AX77" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX77"/>
       <c r="BA77" t="s">
         <v>748</v>
       </c>
-      <c r="BC77">
-        <v>1000</v>
-      </c>
       <c r="BD77" t="s">
         <v>191</v>
       </c>
-      <c r="BE77">
-        <v>1000</v>
-      </c>
+      <c r="BE77"/>
       <c r="BG77" t="s">
         <v>337</v>
       </c>
@@ -54310,26 +53093,17 @@
       <c r="A78" t="s">
         <v>2768</v>
       </c>
-      <c r="B78" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C78" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D78" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F78">
-        <v>1077</v>
-      </c>
-      <c r="G78">
-        <v>1072</v>
-      </c>
-      <c r="I78" t="s">
-        <v>4313</v>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="F78" t="s">
+        <v>473</v>
+      </c>
+      <c r="G78" t="s">
+        <v>388</v>
       </c>
       <c r="J78" t="s">
-        <v>4389</v>
+        <v>2769</v>
       </c>
       <c r="L78" t="s">
         <v>193</v>
@@ -54418,17 +53192,9 @@
       <c r="AW78" t="s">
         <v>1093</v>
       </c>
-      <c r="AX78" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX78"/>
       <c r="BA78" t="s">
         <v>223</v>
-      </c>
-      <c r="BC78">
-        <v>1000</v>
-      </c>
-      <c r="BE78">
-        <v>1000</v>
       </c>
       <c r="BG78" t="s">
         <v>225</v>
@@ -54507,26 +53273,17 @@
       <c r="A79" t="s">
         <v>2802</v>
       </c>
-      <c r="B79" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C79" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D79" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F79">
-        <v>1078</v>
-      </c>
-      <c r="G79">
-        <v>1074</v>
-      </c>
-      <c r="I79" t="s">
-        <v>4313</v>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="F79" t="s">
+        <v>474</v>
+      </c>
+      <c r="G79" t="s">
+        <v>390</v>
       </c>
       <c r="J79" t="s">
-        <v>4390</v>
+        <v>2803</v>
       </c>
       <c r="L79" t="s">
         <v>193</v>
@@ -54618,24 +53375,17 @@
       <c r="AW79" t="s">
         <v>222</v>
       </c>
-      <c r="AX79" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX79"/>
       <c r="AZ79" t="s">
         <v>191</v>
       </c>
       <c r="BA79" t="s">
         <v>2823</v>
       </c>
-      <c r="BC79">
-        <v>1000</v>
-      </c>
       <c r="BD79" t="s">
         <v>464</v>
       </c>
-      <c r="BE79">
-        <v>1000</v>
-      </c>
+      <c r="BE79"/>
       <c r="BG79" t="s">
         <v>225</v>
       </c>
@@ -54701,26 +53451,17 @@
       <c r="A80" t="s">
         <v>2829</v>
       </c>
-      <c r="B80" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C80" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F80">
-        <v>1079</v>
-      </c>
-      <c r="G80">
-        <v>1071</v>
-      </c>
-      <c r="I80" t="s">
-        <v>4313</v>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="F80" t="s">
+        <v>475</v>
+      </c>
+      <c r="G80" t="s">
+        <v>387</v>
       </c>
       <c r="J80" t="s">
-        <v>4391</v>
+        <v>2830</v>
       </c>
       <c r="L80" t="s">
         <v>193</v>
@@ -54824,17 +53565,9 @@
       <c r="AW80" t="s">
         <v>461</v>
       </c>
-      <c r="AX80" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX80"/>
       <c r="BA80" t="s">
         <v>223</v>
-      </c>
-      <c r="BC80">
-        <v>1000</v>
-      </c>
-      <c r="BE80">
-        <v>1000</v>
       </c>
       <c r="BG80" t="s">
         <v>337</v>
@@ -54904,26 +53637,17 @@
       <c r="A81" t="s">
         <v>2861</v>
       </c>
-      <c r="B81" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C81" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F81">
-        <v>1080</v>
-      </c>
-      <c r="G81">
-        <v>1073</v>
-      </c>
-      <c r="I81" t="s">
-        <v>4313</v>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="F81" t="s">
+        <v>476</v>
+      </c>
+      <c r="G81" t="s">
+        <v>389</v>
       </c>
       <c r="J81" t="s">
-        <v>4392</v>
+        <v>2862</v>
       </c>
       <c r="L81" t="s">
         <v>193</v>
@@ -55012,21 +53736,14 @@
       <c r="AW81" t="s">
         <v>921</v>
       </c>
-      <c r="AX81" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX81"/>
       <c r="BA81" t="s">
         <v>666</v>
       </c>
-      <c r="BC81">
-        <v>1000</v>
-      </c>
       <c r="BD81" t="s">
         <v>224</v>
       </c>
-      <c r="BE81">
-        <v>1000</v>
-      </c>
+      <c r="BE81"/>
       <c r="BG81" t="s">
         <v>337</v>
       </c>
@@ -55101,26 +53818,17 @@
       <c r="A82" t="s">
         <v>2892</v>
       </c>
-      <c r="B82" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C82" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F82">
-        <v>1081</v>
-      </c>
-      <c r="G82">
-        <v>1079</v>
-      </c>
-      <c r="I82" t="s">
-        <v>4313</v>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="F82" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G82" t="s">
+        <v>475</v>
       </c>
       <c r="J82" t="s">
-        <v>4393</v>
+        <v>2893</v>
       </c>
       <c r="L82" t="s">
         <v>193</v>
@@ -55212,17 +53920,9 @@
       <c r="AW82" t="s">
         <v>1129</v>
       </c>
-      <c r="AX82" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX82"/>
       <c r="BA82" t="s">
         <v>253</v>
-      </c>
-      <c r="BC82">
-        <v>1000</v>
-      </c>
-      <c r="BE82">
-        <v>1000</v>
       </c>
       <c r="BG82" t="s">
         <v>225</v>
@@ -55286,26 +53986,17 @@
       <c r="A83" t="s">
         <v>2918</v>
       </c>
-      <c r="B83" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C83" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D83" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F83">
-        <v>1082</v>
-      </c>
-      <c r="G83">
-        <v>1091</v>
-      </c>
-      <c r="I83" t="s">
-        <v>4313</v>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="F83" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1659</v>
       </c>
       <c r="J83" t="s">
-        <v>4394</v>
+        <v>2919</v>
       </c>
       <c r="L83" t="s">
         <v>193</v>
@@ -55397,24 +54088,17 @@
       <c r="AW83" t="s">
         <v>1789</v>
       </c>
-      <c r="AX83" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX83"/>
       <c r="AY83" t="s">
         <v>1532</v>
       </c>
       <c r="BA83" t="s">
         <v>298</v>
       </c>
-      <c r="BC83">
-        <v>1000</v>
-      </c>
       <c r="BD83" t="s">
         <v>224</v>
       </c>
-      <c r="BE83">
-        <v>1000</v>
-      </c>
+      <c r="BE83"/>
       <c r="BG83" t="s">
         <v>225</v>
       </c>
@@ -55483,26 +54167,17 @@
       <c r="A84" t="s">
         <v>2949</v>
       </c>
-      <c r="B84" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C84" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F84">
-        <v>1083</v>
-      </c>
-      <c r="G84">
-        <v>1076</v>
-      </c>
-      <c r="I84" t="s">
-        <v>4313</v>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="F84" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G84" t="s">
+        <v>472</v>
       </c>
       <c r="J84" t="s">
-        <v>4395</v>
+        <v>2950</v>
       </c>
       <c r="L84" t="s">
         <v>193</v>
@@ -55594,17 +54269,9 @@
       <c r="AW84" t="s">
         <v>421</v>
       </c>
-      <c r="AX84" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX84"/>
       <c r="BA84" t="s">
         <v>280</v>
-      </c>
-      <c r="BC84">
-        <v>1000</v>
-      </c>
-      <c r="BE84">
-        <v>1000</v>
       </c>
       <c r="BF84" t="s">
         <v>464</v>
@@ -55671,26 +54338,17 @@
       <c r="A85" t="s">
         <v>2978</v>
       </c>
-      <c r="B85" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C85" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F85">
-        <v>1084</v>
-      </c>
-      <c r="G85">
-        <v>1077</v>
-      </c>
-      <c r="I85" t="s">
-        <v>4313</v>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="F85" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G85" t="s">
+        <v>473</v>
       </c>
       <c r="J85" t="s">
-        <v>4396</v>
+        <v>2979</v>
       </c>
       <c r="L85" t="s">
         <v>193</v>
@@ -55788,21 +54446,14 @@
       <c r="AW85" t="s">
         <v>461</v>
       </c>
-      <c r="AX85" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX85"/>
       <c r="BA85" t="s">
         <v>3004</v>
       </c>
-      <c r="BC85">
-        <v>1000</v>
-      </c>
       <c r="BD85" t="s">
         <v>3005</v>
       </c>
-      <c r="BE85">
-        <v>1000</v>
-      </c>
+      <c r="BE85"/>
       <c r="BG85" t="s">
         <v>225</v>
       </c>
@@ -55877,26 +54528,17 @@
       <c r="A86" t="s">
         <v>3013</v>
       </c>
-      <c r="B86" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C86" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F86">
-        <v>1085</v>
-      </c>
-      <c r="G86">
-        <v>1084</v>
-      </c>
-      <c r="I86" t="s">
-        <v>4313</v>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="F86" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1596</v>
       </c>
       <c r="J86" t="s">
-        <v>4397</v>
+        <v>3014</v>
       </c>
       <c r="L86" t="s">
         <v>193</v>
@@ -55994,17 +54636,9 @@
       <c r="AW86" t="s">
         <v>381</v>
       </c>
-      <c r="AX86" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX86"/>
       <c r="BA86" t="s">
         <v>191</v>
-      </c>
-      <c r="BC86">
-        <v>1000</v>
-      </c>
-      <c r="BE86">
-        <v>1000</v>
       </c>
       <c r="BG86" t="s">
         <v>225</v>
@@ -56071,26 +54705,17 @@
       <c r="A87" t="s">
         <v>3044</v>
       </c>
-      <c r="B87" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C87" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D87" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F87">
-        <v>1086</v>
-      </c>
-      <c r="G87">
-        <v>1081</v>
-      </c>
-      <c r="I87" t="s">
-        <v>4313</v>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="F87" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1095</v>
       </c>
       <c r="J87" t="s">
-        <v>4398</v>
+        <v>3045</v>
       </c>
       <c r="L87" t="s">
         <v>193</v>
@@ -56182,20 +54807,12 @@
       <c r="AW87" t="s">
         <v>461</v>
       </c>
-      <c r="AX87" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX87"/>
       <c r="AY87" t="s">
         <v>780</v>
       </c>
       <c r="BA87" t="s">
         <v>3070</v>
-      </c>
-      <c r="BC87">
-        <v>1000</v>
-      </c>
-      <c r="BE87">
-        <v>1000</v>
       </c>
       <c r="BG87" t="s">
         <v>337</v>
@@ -56274,26 +54891,17 @@
       <c r="A88" t="s">
         <v>3079</v>
       </c>
-      <c r="B88" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C88" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F88">
-        <v>1087</v>
-      </c>
-      <c r="G88">
-        <v>1085</v>
-      </c>
-      <c r="I88" t="s">
-        <v>4313</v>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="F88" t="s">
+        <v>2575</v>
+      </c>
+      <c r="G88" t="s">
+        <v>2574</v>
       </c>
       <c r="J88" t="s">
-        <v>4399</v>
+        <v>3080</v>
       </c>
       <c r="L88" t="s">
         <v>193</v>
@@ -56382,17 +54990,9 @@
       <c r="AW88" t="s">
         <v>993</v>
       </c>
-      <c r="AX88" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX88"/>
       <c r="BA88" t="s">
         <v>3070</v>
-      </c>
-      <c r="BC88">
-        <v>1000</v>
-      </c>
-      <c r="BE88">
-        <v>1000</v>
       </c>
       <c r="BG88" t="s">
         <v>337</v>
@@ -56468,26 +55068,17 @@
       <c r="A89" t="s">
         <v>3110</v>
       </c>
-      <c r="B89" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C89" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F89">
-        <v>1088</v>
-      </c>
-      <c r="G89">
-        <v>1088</v>
-      </c>
-      <c r="I89" t="s">
-        <v>4313</v>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="F89" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2576</v>
       </c>
       <c r="J89" t="s">
-        <v>4400</v>
+        <v>3111</v>
       </c>
       <c r="L89" t="s">
         <v>193</v>
@@ -56579,21 +55170,14 @@
       <c r="AW89" t="s">
         <v>222</v>
       </c>
-      <c r="AX89" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX89"/>
       <c r="BA89" t="s">
         <v>256</v>
       </c>
-      <c r="BC89">
-        <v>1000</v>
-      </c>
       <c r="BD89" t="s">
         <v>748</v>
       </c>
-      <c r="BE89">
-        <v>1000</v>
-      </c>
+      <c r="BE89"/>
       <c r="BG89" t="s">
         <v>225</v>
       </c>
@@ -56653,26 +55237,17 @@
       <c r="A90" t="s">
         <v>3139</v>
       </c>
-      <c r="B90" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C90" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F90">
-        <v>1089</v>
-      </c>
-      <c r="G90">
-        <v>1087</v>
-      </c>
-      <c r="I90" t="s">
-        <v>4313</v>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="F90" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2575</v>
       </c>
       <c r="J90" t="s">
-        <v>4401</v>
+        <v>3140</v>
       </c>
       <c r="L90" t="s">
         <v>193</v>
@@ -56767,21 +55342,14 @@
       <c r="AW90" t="s">
         <v>1789</v>
       </c>
-      <c r="AX90" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX90"/>
       <c r="BA90" t="s">
         <v>297</v>
       </c>
-      <c r="BC90">
-        <v>1000</v>
-      </c>
       <c r="BD90" t="s">
         <v>703</v>
       </c>
-      <c r="BE90">
-        <v>1000</v>
-      </c>
+      <c r="BE90"/>
       <c r="BG90" t="s">
         <v>225</v>
       </c>
@@ -56850,26 +55418,17 @@
       <c r="A91" t="s">
         <v>3169</v>
       </c>
-      <c r="B91" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C91" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D91" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F91">
-        <v>1090</v>
-      </c>
-      <c r="G91">
-        <v>1089</v>
-      </c>
-      <c r="I91" t="s">
-        <v>4313</v>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="F91" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2700</v>
       </c>
       <c r="J91" t="s">
-        <v>4402</v>
+        <v>3170</v>
       </c>
       <c r="L91" t="s">
         <v>193</v>
@@ -56964,17 +55523,9 @@
       <c r="AW91" t="s">
         <v>1789</v>
       </c>
-      <c r="AX91" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX91"/>
       <c r="BA91" t="s">
         <v>2823</v>
-      </c>
-      <c r="BC91">
-        <v>1000</v>
-      </c>
-      <c r="BE91">
-        <v>1000</v>
       </c>
       <c r="BG91" t="s">
         <v>337</v>
@@ -57047,26 +55598,17 @@
       <c r="A92" t="s">
         <v>3201</v>
       </c>
-      <c r="B92" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C92" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F92">
-        <v>1091</v>
-      </c>
-      <c r="G92">
-        <v>1083</v>
-      </c>
-      <c r="I92" t="s">
-        <v>4313</v>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="F92" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1595</v>
       </c>
       <c r="J92" t="s">
-        <v>4403</v>
+        <v>3202</v>
       </c>
       <c r="L92" t="s">
         <v>193</v>
@@ -57161,20 +55703,12 @@
       <c r="AW92" t="s">
         <v>1129</v>
       </c>
-      <c r="AX92" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX92"/>
       <c r="AY92" t="s">
         <v>780</v>
       </c>
       <c r="BA92" t="s">
         <v>191</v>
-      </c>
-      <c r="BC92">
-        <v>1000</v>
-      </c>
-      <c r="BE92">
-        <v>1000</v>
       </c>
       <c r="BG92" t="s">
         <v>337</v>
@@ -57235,26 +55769,17 @@
       <c r="A93" t="s">
         <v>3230</v>
       </c>
-      <c r="B93" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C93" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D93" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F93">
-        <v>1092</v>
-      </c>
-      <c r="G93">
-        <v>1090</v>
-      </c>
-      <c r="I93" t="s">
-        <v>4313</v>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="F93" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1658</v>
       </c>
       <c r="J93" t="s">
-        <v>4404</v>
+        <v>3231</v>
       </c>
       <c r="L93" t="s">
         <v>193</v>
@@ -57355,17 +55880,9 @@
       <c r="AW93" t="s">
         <v>893</v>
       </c>
-      <c r="AX93" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX93"/>
       <c r="BA93" t="s">
         <v>2823</v>
-      </c>
-      <c r="BC93">
-        <v>1000</v>
-      </c>
-      <c r="BE93">
-        <v>1000</v>
       </c>
       <c r="BG93" t="s">
         <v>337</v>
@@ -57432,26 +55949,17 @@
       <c r="A94" t="s">
         <v>3264</v>
       </c>
-      <c r="B94" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C94" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D94" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F94">
-        <v>1093</v>
-      </c>
-      <c r="G94">
-        <v>1094</v>
-      </c>
-      <c r="I94" t="s">
-        <v>4313</v>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="F94" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1321</v>
       </c>
       <c r="J94" t="s">
-        <v>4405</v>
+        <v>3265</v>
       </c>
       <c r="L94" t="s">
         <v>193</v>
@@ -57549,24 +56057,17 @@
       <c r="AW94" t="s">
         <v>381</v>
       </c>
-      <c r="AX94" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX94"/>
       <c r="AY94" t="s">
         <v>780</v>
       </c>
       <c r="BA94" t="s">
         <v>223</v>
       </c>
-      <c r="BC94">
-        <v>1000</v>
-      </c>
       <c r="BD94" t="s">
         <v>2416</v>
       </c>
-      <c r="BE94">
-        <v>1000</v>
-      </c>
+      <c r="BE94"/>
       <c r="BG94" t="s">
         <v>225</v>
       </c>
@@ -57638,26 +56139,17 @@
       <c r="A95" t="s">
         <v>3295</v>
       </c>
-      <c r="B95" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C95" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D95" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F95">
-        <v>1094</v>
-      </c>
-      <c r="G95">
-        <v>1096</v>
-      </c>
-      <c r="I95" t="s">
-        <v>4313</v>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="F95" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1323</v>
       </c>
       <c r="J95" t="s">
-        <v>4406</v>
+        <v>3296</v>
       </c>
       <c r="L95" t="s">
         <v>193</v>
@@ -57749,24 +56241,17 @@
       <c r="AW95" t="s">
         <v>1262</v>
       </c>
-      <c r="AX95" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX95"/>
       <c r="AZ95" t="s">
         <v>191</v>
       </c>
       <c r="BA95" t="s">
         <v>280</v>
       </c>
-      <c r="BC95">
-        <v>1000</v>
-      </c>
       <c r="BD95" t="s">
         <v>224</v>
       </c>
-      <c r="BE95">
-        <v>1000</v>
-      </c>
+      <c r="BE95"/>
       <c r="BG95" t="s">
         <v>337</v>
       </c>
@@ -57838,26 +56323,17 @@
       <c r="A96" t="s">
         <v>3325</v>
       </c>
-      <c r="B96" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C96" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D96" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F96">
-        <v>1095</v>
-      </c>
-      <c r="G96">
-        <v>1097</v>
-      </c>
-      <c r="I96" t="s">
-        <v>4313</v>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="F96" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1324</v>
       </c>
       <c r="J96" t="s">
-        <v>4407</v>
+        <v>3326</v>
       </c>
       <c r="L96" t="s">
         <v>193</v>
@@ -57955,21 +56431,14 @@
       <c r="AW96" t="s">
         <v>461</v>
       </c>
-      <c r="AX96" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX96"/>
       <c r="BA96" t="s">
         <v>280</v>
       </c>
-      <c r="BC96">
-        <v>1000</v>
-      </c>
       <c r="BD96" t="s">
         <v>224</v>
       </c>
-      <c r="BE96">
-        <v>1000</v>
-      </c>
+      <c r="BE96"/>
       <c r="BG96" t="s">
         <v>337</v>
       </c>
@@ -58056,26 +56525,17 @@
       <c r="A97" t="s">
         <v>3360</v>
       </c>
-      <c r="B97" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C97" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D97" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F97">
-        <v>1096</v>
-      </c>
-      <c r="G97">
-        <v>1093</v>
-      </c>
-      <c r="I97" t="s">
-        <v>4313</v>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="F97" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1661</v>
       </c>
       <c r="J97" t="s">
-        <v>4408</v>
+        <v>3361</v>
       </c>
       <c r="L97" t="s">
         <v>193</v>
@@ -58170,17 +56630,9 @@
       <c r="AW97" t="s">
         <v>381</v>
       </c>
-      <c r="AX97" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX97"/>
       <c r="BA97" t="s">
         <v>223</v>
-      </c>
-      <c r="BC97">
-        <v>1000</v>
-      </c>
-      <c r="BE97">
-        <v>1000</v>
       </c>
       <c r="BG97" t="s">
         <v>225</v>
@@ -58256,26 +56708,17 @@
       <c r="A98" t="s">
         <v>3395</v>
       </c>
-      <c r="B98" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C98" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F98">
-        <v>1097</v>
-      </c>
-      <c r="G98">
-        <v>1092</v>
-      </c>
-      <c r="I98" t="s">
-        <v>4313</v>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="F98" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1660</v>
       </c>
       <c r="J98" t="s">
-        <v>4409</v>
+        <v>3396</v>
       </c>
       <c r="L98" t="s">
         <v>193</v>
@@ -58367,24 +56810,17 @@
       <c r="AW98" t="s">
         <v>336</v>
       </c>
-      <c r="AX98" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX98"/>
       <c r="AY98" t="s">
         <v>743</v>
       </c>
       <c r="BA98" t="s">
         <v>191</v>
       </c>
-      <c r="BC98">
-        <v>1000</v>
-      </c>
       <c r="BD98" t="s">
         <v>464</v>
       </c>
-      <c r="BE98">
-        <v>1000</v>
-      </c>
+      <c r="BE98"/>
       <c r="BG98" t="s">
         <v>225</v>
       </c>
@@ -58450,26 +56886,17 @@
       <c r="A99" t="s">
         <v>3423</v>
       </c>
-      <c r="B99" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C99" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D99" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F99">
-        <v>1098</v>
-      </c>
-      <c r="G99">
-        <v>1095</v>
-      </c>
-      <c r="I99" t="s">
-        <v>4313</v>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="F99" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1322</v>
       </c>
       <c r="J99" t="s">
-        <v>4410</v>
+        <v>3424</v>
       </c>
       <c r="L99" t="s">
         <v>193</v>
@@ -58564,17 +56991,9 @@
       <c r="AW99" t="s">
         <v>461</v>
       </c>
-      <c r="AX99" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX99"/>
       <c r="BA99" t="s">
         <v>223</v>
-      </c>
-      <c r="BC99">
-        <v>1000</v>
-      </c>
-      <c r="BE99">
-        <v>1000</v>
       </c>
       <c r="BF99" t="s">
         <v>464</v>
@@ -58650,26 +57069,17 @@
       <c r="A100" t="s">
         <v>3457</v>
       </c>
-      <c r="B100" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C100" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D100" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F100">
-        <v>1099</v>
-      </c>
-      <c r="G100">
-        <v>1099</v>
-      </c>
-      <c r="I100" t="s">
-        <v>4313</v>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="F100" t="s">
+        <v>2702</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2702</v>
       </c>
       <c r="J100" t="s">
-        <v>4411</v>
+        <v>3458</v>
       </c>
       <c r="L100" t="s">
         <v>193</v>
@@ -58764,9 +57174,7 @@
       <c r="AW100" t="s">
         <v>461</v>
       </c>
-      <c r="AX100" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX100"/>
       <c r="AY100" t="s">
         <v>195</v>
       </c>
@@ -58775,12 +57183,6 @@
       </c>
       <c r="BA100" t="s">
         <v>256</v>
-      </c>
-      <c r="BC100">
-        <v>1000</v>
-      </c>
-      <c r="BE100">
-        <v>1000</v>
       </c>
       <c r="BF100" t="s">
         <v>224</v>
@@ -58853,26 +57255,17 @@
       <c r="A101" t="s">
         <v>3487</v>
       </c>
-      <c r="B101" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C101" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D101" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F101">
-        <v>1100</v>
-      </c>
-      <c r="G101">
-        <v>1098</v>
-      </c>
-      <c r="I101" t="s">
-        <v>4313</v>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="F101" t="s">
+        <v>2703</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2701</v>
       </c>
       <c r="J101" t="s">
-        <v>4412</v>
+        <v>3488</v>
       </c>
       <c r="L101" t="s">
         <v>193</v>
@@ -58967,24 +57360,17 @@
       <c r="AW101" t="s">
         <v>1093</v>
       </c>
-      <c r="AX101" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX101"/>
       <c r="AY101" t="s">
         <v>780</v>
       </c>
       <c r="BA101" t="s">
         <v>191</v>
       </c>
-      <c r="BC101">
-        <v>1000</v>
-      </c>
       <c r="BD101" t="s">
         <v>1094</v>
       </c>
-      <c r="BE101">
-        <v>1000</v>
-      </c>
+      <c r="BE101"/>
       <c r="BG101" t="s">
         <v>225</v>
       </c>
@@ -59056,26 +57442,17 @@
       <c r="A102" t="s">
         <v>3521</v>
       </c>
-      <c r="B102" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C102" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F102">
-        <v>1101</v>
-      </c>
-      <c r="G102">
-        <v>1100</v>
-      </c>
-      <c r="I102" t="s">
-        <v>4313</v>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="F102" t="s">
+        <v>2301</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2703</v>
       </c>
       <c r="J102" t="s">
-        <v>4413</v>
+        <v>3522</v>
       </c>
       <c r="L102" t="s">
         <v>193</v>
@@ -59176,20 +57553,12 @@
       <c r="AW102" t="s">
         <v>921</v>
       </c>
-      <c r="AX102" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX102"/>
       <c r="AZ102" t="s">
         <v>191</v>
       </c>
       <c r="BA102" t="s">
         <v>666</v>
-      </c>
-      <c r="BC102">
-        <v>1000</v>
-      </c>
-      <c r="BE102">
-        <v>1000</v>
       </c>
       <c r="BG102" t="s">
         <v>337</v>
@@ -59265,26 +57634,17 @@
       <c r="A103" t="s">
         <v>3552</v>
       </c>
-      <c r="B103" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C103" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D103" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F103">
-        <v>1102</v>
-      </c>
-      <c r="G103">
-        <v>1102</v>
-      </c>
-      <c r="I103" t="s">
-        <v>4313</v>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="F103" t="s">
+        <v>2302</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2302</v>
       </c>
       <c r="J103" t="s">
-        <v>4414</v>
+        <v>3553</v>
       </c>
       <c r="L103" t="s">
         <v>193</v>
@@ -59376,9 +57736,7 @@
       <c r="AW103" t="s">
         <v>921</v>
       </c>
-      <c r="AX103" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX103"/>
       <c r="AY103" t="s">
         <v>1290</v>
       </c>
@@ -59388,15 +57746,10 @@
       <c r="BA103" t="s">
         <v>2823</v>
       </c>
-      <c r="BC103">
-        <v>1000</v>
-      </c>
       <c r="BD103" t="s">
         <v>191</v>
       </c>
-      <c r="BE103">
-        <v>1000</v>
-      </c>
+      <c r="BE103"/>
       <c r="BG103" t="s">
         <v>225</v>
       </c>
@@ -59468,26 +57821,17 @@
       <c r="A104" t="s">
         <v>3583</v>
       </c>
-      <c r="B104" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C104" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D104" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F104">
-        <v>1103</v>
-      </c>
-      <c r="G104">
-        <v>1101</v>
-      </c>
-      <c r="I104" t="s">
-        <v>4313</v>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="F104" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G104" t="s">
+        <v>2301</v>
       </c>
       <c r="J104" t="s">
-        <v>4415</v>
+        <v>3584</v>
       </c>
       <c r="L104" t="s">
         <v>193</v>
@@ -59579,17 +57923,9 @@
       <c r="AW104" t="s">
         <v>222</v>
       </c>
-      <c r="AX104" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX104"/>
       <c r="BA104" t="s">
         <v>3070</v>
-      </c>
-      <c r="BC104">
-        <v>1000</v>
-      </c>
-      <c r="BE104">
-        <v>1000</v>
       </c>
       <c r="BG104" t="s">
         <v>225</v>
@@ -59653,26 +57989,17 @@
       <c r="A105" t="s">
         <v>3610</v>
       </c>
-      <c r="B105" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C105" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D105" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F105">
-        <v>1104</v>
-      </c>
-      <c r="G105">
-        <v>1105</v>
-      </c>
-      <c r="I105" t="s">
-        <v>4313</v>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="F105" t="s">
+        <v>2943</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3006</v>
       </c>
       <c r="J105" t="s">
-        <v>4416</v>
+        <v>3611</v>
       </c>
       <c r="L105" t="s">
         <v>193</v>
@@ -59758,17 +58085,9 @@
       <c r="AW105" t="s">
         <v>1789</v>
       </c>
-      <c r="AX105" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX105"/>
       <c r="BA105" t="s">
         <v>3070</v>
-      </c>
-      <c r="BC105">
-        <v>1000</v>
-      </c>
-      <c r="BE105">
-        <v>1000</v>
       </c>
       <c r="BG105" t="s">
         <v>225</v>
@@ -59841,26 +58160,17 @@
       <c r="A106" t="s">
         <v>3639</v>
       </c>
-      <c r="B106" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C106" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D106" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F106">
-        <v>1106</v>
-      </c>
-      <c r="G106">
-        <v>1103</v>
-      </c>
-      <c r="I106" t="s">
-        <v>4313</v>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="F106" t="s">
+        <v>2603</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2303</v>
       </c>
       <c r="J106" t="s">
-        <v>4417</v>
+        <v>3640</v>
       </c>
       <c r="L106" t="s">
         <v>193</v>
@@ -59952,24 +58262,17 @@
       <c r="AW106" t="s">
         <v>336</v>
       </c>
-      <c r="AX106" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX106"/>
       <c r="AZ106" t="s">
         <v>191</v>
       </c>
       <c r="BA106" t="s">
         <v>280</v>
       </c>
-      <c r="BC106">
-        <v>1000</v>
-      </c>
       <c r="BD106" t="s">
         <v>464</v>
       </c>
-      <c r="BE106">
-        <v>1000</v>
-      </c>
+      <c r="BE106"/>
       <c r="BG106" t="s">
         <v>225</v>
       </c>
@@ -60035,26 +58338,17 @@
       <c r="A107" t="s">
         <v>3668</v>
       </c>
-      <c r="B107" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C107" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D107" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F107">
-        <v>1107</v>
-      </c>
-      <c r="G107">
-        <v>1104</v>
-      </c>
-      <c r="I107" t="s">
-        <v>4313</v>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="F107" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G107" t="s">
+        <v>2943</v>
       </c>
       <c r="J107" t="s">
-        <v>4418</v>
+        <v>3669</v>
       </c>
       <c r="L107" t="s">
         <v>193</v>
@@ -60146,20 +58440,12 @@
       <c r="AW107" t="s">
         <v>461</v>
       </c>
-      <c r="AX107" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX107"/>
       <c r="AZ107" t="s">
         <v>191</v>
       </c>
       <c r="BA107" t="s">
         <v>955</v>
-      </c>
-      <c r="BC107">
-        <v>1000</v>
-      </c>
-      <c r="BE107">
-        <v>1000</v>
       </c>
       <c r="BG107" t="s">
         <v>225</v>
@@ -60232,26 +58518,17 @@
       <c r="A108" t="s">
         <v>3701</v>
       </c>
-      <c r="B108" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C108" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D108" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F108">
-        <v>1109</v>
-      </c>
-      <c r="G108">
-        <v>1107</v>
-      </c>
-      <c r="I108" t="s">
-        <v>4313</v>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="F108" t="s">
+        <v>2887</v>
+      </c>
+      <c r="G108" t="s">
+        <v>2885</v>
       </c>
       <c r="J108" t="s">
-        <v>4419</v>
+        <v>3702</v>
       </c>
       <c r="L108" t="s">
         <v>193</v>
@@ -60355,21 +58632,14 @@
       <c r="AW108" t="s">
         <v>1093</v>
       </c>
-      <c r="AX108" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX108"/>
       <c r="BA108" t="s">
         <v>299</v>
       </c>
-      <c r="BC108">
-        <v>1000</v>
-      </c>
       <c r="BD108" t="s">
         <v>191</v>
       </c>
-      <c r="BE108">
-        <v>1000</v>
-      </c>
+      <c r="BE108"/>
       <c r="BG108" t="s">
         <v>225</v>
       </c>
@@ -60438,26 +58708,17 @@
       <c r="A109" t="s">
         <v>3731</v>
       </c>
-      <c r="B109" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C109" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D109" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F109">
-        <v>1110</v>
-      </c>
-      <c r="G109">
-        <v>1106</v>
-      </c>
-      <c r="I109" t="s">
-        <v>4313</v>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="F109" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G109" t="s">
+        <v>2603</v>
       </c>
       <c r="J109" t="s">
-        <v>4420</v>
+        <v>3732</v>
       </c>
       <c r="L109" t="s">
         <v>193</v>
@@ -60555,24 +58816,17 @@
       <c r="AW109" t="s">
         <v>421</v>
       </c>
-      <c r="AX109" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX109"/>
       <c r="AY109" t="s">
         <v>195</v>
       </c>
       <c r="BA109" t="s">
         <v>280</v>
       </c>
-      <c r="BC109">
-        <v>1000</v>
-      </c>
       <c r="BD109" t="s">
         <v>422</v>
       </c>
-      <c r="BE109">
-        <v>1000</v>
-      </c>
+      <c r="BE109"/>
       <c r="BG109" t="s">
         <v>337</v>
       </c>
@@ -60638,26 +58892,17 @@
       <c r="A110" t="s">
         <v>3761</v>
       </c>
-      <c r="B110" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C110" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D110" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F110">
-        <v>1111</v>
-      </c>
-      <c r="G110">
-        <v>1109</v>
-      </c>
-      <c r="I110" t="s">
-        <v>4313</v>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="F110" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G110" t="s">
+        <v>2887</v>
       </c>
       <c r="J110" t="s">
-        <v>4421</v>
+        <v>3762</v>
       </c>
       <c r="L110" t="s">
         <v>193</v>
@@ -60755,20 +59000,12 @@
       <c r="AW110" t="s">
         <v>993</v>
       </c>
-      <c r="AX110" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX110"/>
       <c r="AY110" t="s">
         <v>780</v>
       </c>
       <c r="BA110" t="s">
         <v>223</v>
-      </c>
-      <c r="BC110">
-        <v>1000</v>
-      </c>
-      <c r="BE110">
-        <v>1000</v>
       </c>
       <c r="BF110" t="s">
         <v>464</v>
@@ -60847,26 +59084,17 @@
       <c r="A111" t="s">
         <v>3793</v>
       </c>
-      <c r="B111" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C111" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D111" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F111">
-        <v>1105</v>
-      </c>
-      <c r="G111">
-        <v>1108</v>
-      </c>
-      <c r="I111" t="s">
-        <v>4313</v>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="F111" t="s">
+        <v>3006</v>
+      </c>
+      <c r="G111" t="s">
+        <v>2886</v>
       </c>
       <c r="J111" t="s">
-        <v>4422</v>
+        <v>3794</v>
       </c>
       <c r="L111" t="s">
         <v>193</v>
@@ -60972,12 +59200,6 @@
       </c>
       <c r="BA111" t="s">
         <v>299</v>
-      </c>
-      <c r="BC111">
-        <v>1000</v>
-      </c>
-      <c r="BE111">
-        <v>1000</v>
       </c>
       <c r="BF111" t="s">
         <v>422</v>
@@ -61062,26 +59284,15 @@
       <c r="A112" t="s">
         <v>3831</v>
       </c>
-      <c r="B112" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C112" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D112" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F112">
-        <v>1127</v>
-      </c>
-      <c r="G112">
-        <v>1000</v>
-      </c>
-      <c r="I112" t="s">
-        <v>4313</v>
-      </c>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="F112" t="s">
+        <v>708</v>
+      </c>
+      <c r="G112"/>
       <c r="J112" t="s">
-        <v>4423</v>
+        <v>3832</v>
       </c>
       <c r="L112" t="s">
         <v>193</v>
@@ -61196,26 +59407,17 @@
       <c r="A113" t="s">
         <v>3842</v>
       </c>
-      <c r="B113" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C113" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D113" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F113">
-        <v>1112</v>
-      </c>
-      <c r="G113">
-        <v>1110</v>
-      </c>
-      <c r="I113" t="s">
-        <v>4313</v>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="F113" t="s">
+        <v>2605</v>
+      </c>
+      <c r="G113" t="s">
+        <v>2888</v>
       </c>
       <c r="J113" t="s">
-        <v>4424</v>
+        <v>3843</v>
       </c>
       <c r="L113" t="s">
         <v>193</v>
@@ -61312,12 +59514,6 @@
       </c>
       <c r="BA113" t="s">
         <v>223</v>
-      </c>
-      <c r="BC113">
-        <v>1000</v>
-      </c>
-      <c r="BE113">
-        <v>1000</v>
       </c>
       <c r="BG113" t="s">
         <v>337</v>
@@ -61393,26 +59589,17 @@
       <c r="A114" t="s">
         <v>3870</v>
       </c>
-      <c r="B114" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C114" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D114" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F114">
-        <v>1113</v>
-      </c>
-      <c r="G114">
-        <v>1111</v>
-      </c>
-      <c r="I114" t="s">
-        <v>4313</v>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="F114" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G114" t="s">
+        <v>2604</v>
       </c>
       <c r="J114" t="s">
-        <v>4425</v>
+        <v>3871</v>
       </c>
       <c r="L114" t="s">
         <v>193</v>
@@ -61504,24 +59691,17 @@
       <c r="AW114" t="s">
         <v>893</v>
       </c>
-      <c r="AX114" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX114"/>
       <c r="AY114" t="s">
         <v>3892</v>
       </c>
       <c r="BA114" t="s">
         <v>280</v>
       </c>
-      <c r="BC114">
-        <v>1000</v>
-      </c>
       <c r="BD114" t="s">
         <v>224</v>
       </c>
-      <c r="BE114">
-        <v>1000</v>
-      </c>
+      <c r="BE114"/>
       <c r="BG114" t="s">
         <v>337</v>
       </c>
@@ -61602,26 +59782,17 @@
       <c r="A115" t="s">
         <v>3901</v>
       </c>
-      <c r="B115" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C115" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F115">
-        <v>1108</v>
-      </c>
-      <c r="G115">
-        <v>1112</v>
-      </c>
-      <c r="I115" t="s">
-        <v>4313</v>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="F115" t="s">
+        <v>2886</v>
+      </c>
+      <c r="G115" t="s">
+        <v>2605</v>
       </c>
       <c r="J115" t="s">
-        <v>4426</v>
+        <v>3902</v>
       </c>
       <c r="L115" t="s">
         <v>193</v>
@@ -61713,18 +59884,10 @@
       <c r="AW115" t="s">
         <v>993</v>
       </c>
-      <c r="AX115" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX115"/>
       <c r="BA115" t="s">
         <v>671</v>
       </c>
-      <c r="BC115">
-        <v>1000</v>
-      </c>
-      <c r="BE115">
-        <v>1000</v>
-      </c>
       <c r="BG115" t="s">
         <v>225</v>
       </c>
@@ -61777,7 +59940,7 @@
         <v>1689</v>
       </c>
       <c r="CG115" t="s">
-        <v>4427</v>
+        <v>3924</v>
       </c>
       <c r="CJ115" t="s">
         <v>3925</v>
@@ -61799,26 +59962,17 @@
       <c r="A116" t="s">
         <v>3929</v>
       </c>
-      <c r="B116" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C116" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F116">
-        <v>1114</v>
-      </c>
-      <c r="G116">
-        <v>1113</v>
-      </c>
-      <c r="I116" t="s">
-        <v>4313</v>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="F116" t="s">
+        <v>2607</v>
+      </c>
+      <c r="G116" t="s">
+        <v>2606</v>
       </c>
       <c r="J116" t="s">
-        <v>4428</v>
+        <v>3930</v>
       </c>
       <c r="L116" t="s">
         <v>193</v>
@@ -61916,24 +60070,17 @@
       <c r="AW116" t="s">
         <v>336</v>
       </c>
-      <c r="AX116" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX116"/>
       <c r="AZ116" t="s">
         <v>223</v>
       </c>
       <c r="BA116" t="s">
         <v>253</v>
       </c>
-      <c r="BC116">
-        <v>1000</v>
-      </c>
       <c r="BD116" t="s">
         <v>422</v>
       </c>
-      <c r="BE116">
-        <v>1000</v>
-      </c>
+      <c r="BE116"/>
       <c r="BG116" t="s">
         <v>225</v>
       </c>
@@ -62011,26 +60158,17 @@
       <c r="A117" t="s">
         <v>3964</v>
       </c>
-      <c r="B117" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C117" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F117">
-        <v>1120</v>
-      </c>
-      <c r="G117">
-        <v>1115</v>
-      </c>
-      <c r="I117" t="s">
-        <v>4313</v>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="F117" t="s">
+        <v>2665</v>
+      </c>
+      <c r="G117" t="s">
+        <v>2608</v>
       </c>
       <c r="J117" t="s">
-        <v>4429</v>
+        <v>3965</v>
       </c>
       <c r="L117" t="s">
         <v>193</v>
@@ -62134,9 +60272,7 @@
       <c r="AW117" t="s">
         <v>336</v>
       </c>
-      <c r="AX117" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX117"/>
       <c r="AY117" t="s">
         <v>195</v>
       </c>
@@ -62146,15 +60282,10 @@
       <c r="BA117" t="s">
         <v>191</v>
       </c>
-      <c r="BC117">
-        <v>1000</v>
-      </c>
       <c r="BD117" t="s">
         <v>224</v>
       </c>
-      <c r="BE117">
-        <v>1000</v>
-      </c>
+      <c r="BE117"/>
       <c r="BG117" t="s">
         <v>225</v>
       </c>
@@ -62226,26 +60357,17 @@
       <c r="A118" t="s">
         <v>3994</v>
       </c>
-      <c r="B118" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C118" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D118" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F118">
-        <v>1119</v>
-      </c>
-      <c r="G118">
-        <v>1114</v>
-      </c>
-      <c r="I118" t="s">
-        <v>4313</v>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="F118" t="s">
+        <v>2664</v>
+      </c>
+      <c r="G118" t="s">
+        <v>2607</v>
       </c>
       <c r="J118" t="s">
-        <v>4430</v>
+        <v>3995</v>
       </c>
       <c r="L118" t="s">
         <v>193</v>
@@ -62349,24 +60471,17 @@
       <c r="AW118" t="s">
         <v>461</v>
       </c>
-      <c r="AX118" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX118"/>
       <c r="AY118" t="s">
         <v>780</v>
       </c>
       <c r="BA118" t="s">
         <v>280</v>
       </c>
-      <c r="BC118">
-        <v>1000</v>
-      </c>
       <c r="BD118" t="s">
         <v>464</v>
       </c>
-      <c r="BE118">
-        <v>1000</v>
-      </c>
+      <c r="BE118"/>
       <c r="BG118" t="s">
         <v>337</v>
       </c>
@@ -62453,26 +60568,17 @@
       <c r="A119" t="s">
         <v>4028</v>
       </c>
-      <c r="B119" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C119" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D119" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F119">
-        <v>1121</v>
-      </c>
-      <c r="G119">
-        <v>1116</v>
-      </c>
-      <c r="I119" t="s">
-        <v>4313</v>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="F119" t="s">
+        <v>2666</v>
+      </c>
+      <c r="G119" t="s">
+        <v>2609</v>
       </c>
       <c r="J119" t="s">
-        <v>4431</v>
+        <v>4029</v>
       </c>
       <c r="L119" t="s">
         <v>193</v>
@@ -62576,17 +60682,9 @@
       <c r="AW119" t="s">
         <v>461</v>
       </c>
-      <c r="AX119" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX119"/>
       <c r="BA119" t="s">
         <v>223</v>
-      </c>
-      <c r="BC119">
-        <v>1000</v>
-      </c>
-      <c r="BE119">
-        <v>1000</v>
       </c>
       <c r="BG119" t="s">
         <v>337</v>
@@ -62659,26 +60757,17 @@
       <c r="A120" t="s">
         <v>4060</v>
       </c>
-      <c r="B120" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C120" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D120" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F120">
-        <v>1129</v>
-      </c>
-      <c r="G120">
-        <v>1117</v>
-      </c>
-      <c r="I120" t="s">
-        <v>4313</v>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="F120" t="s">
+        <v>710</v>
+      </c>
+      <c r="G120" t="s">
+        <v>2662</v>
       </c>
       <c r="J120" t="s">
-        <v>4432</v>
+        <v>4061</v>
       </c>
       <c r="L120" t="s">
         <v>193</v>
@@ -62764,9 +60853,7 @@
       <c r="AW120" t="s">
         <v>222</v>
       </c>
-      <c r="AX120" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX120"/>
       <c r="AY120" t="s">
         <v>743</v>
       </c>
@@ -62775,12 +60862,6 @@
       </c>
       <c r="BA120" t="s">
         <v>280</v>
-      </c>
-      <c r="BC120">
-        <v>1000</v>
-      </c>
-      <c r="BE120">
-        <v>1000</v>
       </c>
       <c r="BF120" t="s">
         <v>464</v>
@@ -62862,26 +60943,17 @@
       <c r="A121" t="s">
         <v>4089</v>
       </c>
-      <c r="B121" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C121" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D121" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F121">
-        <v>1126</v>
-      </c>
-      <c r="G121">
-        <v>1119</v>
-      </c>
-      <c r="I121" t="s">
-        <v>4313</v>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="F121" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G121" t="s">
+        <v>2664</v>
       </c>
       <c r="J121" t="s">
-        <v>4433</v>
+        <v>4090</v>
       </c>
       <c r="L121" t="s">
         <v>193</v>
@@ -62967,9 +61039,7 @@
       <c r="AW121" t="s">
         <v>993</v>
       </c>
-      <c r="AX121" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX121"/>
       <c r="AY121" t="s">
         <v>780</v>
       </c>
@@ -62978,12 +61048,6 @@
       </c>
       <c r="BA121" t="s">
         <v>280</v>
-      </c>
-      <c r="BC121">
-        <v>1000</v>
-      </c>
-      <c r="BE121">
-        <v>1000</v>
       </c>
       <c r="BF121" t="s">
         <v>4113</v>
@@ -63062,26 +61126,17 @@
       <c r="A122" t="s">
         <v>4122</v>
       </c>
-      <c r="B122" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C122" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D122" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F122">
-        <v>1128</v>
-      </c>
-      <c r="G122">
-        <v>1118</v>
-      </c>
-      <c r="I122" t="s">
-        <v>4313</v>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="F122" t="s">
+        <v>709</v>
+      </c>
+      <c r="G122" t="s">
+        <v>2663</v>
       </c>
       <c r="J122" t="s">
-        <v>4434</v>
+        <v>4123</v>
       </c>
       <c r="L122" t="s">
         <v>193</v>
@@ -63185,17 +61240,9 @@
       <c r="AW122" t="s">
         <v>381</v>
       </c>
-      <c r="AX122" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX122"/>
       <c r="BA122" t="s">
         <v>191</v>
-      </c>
-      <c r="BC122">
-        <v>1000</v>
-      </c>
-      <c r="BE122">
-        <v>1000</v>
       </c>
       <c r="BG122" t="s">
         <v>337</v>
@@ -63277,26 +61324,17 @@
       <c r="A123" t="s">
         <v>4158</v>
       </c>
-      <c r="B123" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C123" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D123" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F123">
-        <v>1123</v>
-      </c>
-      <c r="G123">
-        <v>1120</v>
-      </c>
-      <c r="I123" t="s">
-        <v>4313</v>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="F123" t="s">
+        <v>2668</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2665</v>
       </c>
       <c r="J123" t="s">
-        <v>4435</v>
+        <v>4159</v>
       </c>
       <c r="L123" t="s">
         <v>193</v>
@@ -63400,9 +61438,7 @@
       <c r="AW123" t="s">
         <v>1129</v>
       </c>
-      <c r="AX123" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX123"/>
       <c r="AY123" t="s">
         <v>555</v>
       </c>
@@ -63412,15 +61448,10 @@
       <c r="BA123" t="s">
         <v>3070</v>
       </c>
-      <c r="BC123">
-        <v>1000</v>
-      </c>
       <c r="BD123" t="s">
         <v>3864</v>
       </c>
-      <c r="BE123">
-        <v>1000</v>
-      </c>
+      <c r="BE123"/>
       <c r="BG123" t="s">
         <v>337</v>
       </c>
@@ -63492,26 +61523,17 @@
       <c r="A124" t="s">
         <v>4191</v>
       </c>
-      <c r="B124" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C124" t="s">
-        <v>4312</v>
-      </c>
-      <c r="D124" t="s">
-        <v>4312</v>
-      </c>
-      <c r="F124">
-        <v>1135</v>
-      </c>
-      <c r="G124">
-        <v>1121</v>
-      </c>
-      <c r="I124" t="s">
-        <v>4313</v>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="F124" t="s">
+        <v>3009</v>
+      </c>
+      <c r="G124" t="s">
+        <v>2666</v>
       </c>
       <c r="J124" t="s">
-        <v>4436</v>
+        <v>4192</v>
       </c>
       <c r="L124" t="s">
         <v>193</v>
@@ -63609,9 +61631,7 @@
       <c r="AW124" t="s">
         <v>222</v>
       </c>
-      <c r="AX124" t="s">
-        <v>3819</v>
-      </c>
+      <c r="AX124"/>
       <c r="AY124" t="s">
         <v>1290</v>
       </c>
@@ -63621,12 +61641,6 @@
       <c r="BA124" t="s">
         <v>707</v>
       </c>
-      <c r="BC124">
-        <v>1000</v>
-      </c>
-      <c r="BE124">
-        <v>1000</v>
-      </c>
       <c r="BG124" t="s">
         <v>225</v>
       </c>
@@ -63698,13 +61712,368 @@
       </c>
       <c r="CM124" t="s">
         <v>4220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:91">
+      <c r="A125" t="s">
+        <v>4221</v>
+      </c>
+      <c r="F125" t="s">
+        <v>3010</v>
+      </c>
+      <c r="G125" t="s">
+        <v>2667</v>
+      </c>
+      <c r="J125" t="s">
+        <v>4222</v>
+      </c>
+      <c r="L125" t="s">
+        <v>193</v>
+      </c>
+      <c r="M125" t="s">
+        <v>4223</v>
+      </c>
+      <c r="N125" t="s">
+        <v>191</v>
+      </c>
+      <c r="O125" t="s">
+        <v>191</v>
+      </c>
+      <c r="P125" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>191</v>
+      </c>
+      <c r="R125" t="s">
+        <v>903</v>
+      </c>
+      <c r="S125" t="s">
+        <v>4224</v>
+      </c>
+      <c r="T125" t="s">
+        <v>4225</v>
+      </c>
+      <c r="V125" t="s">
+        <v>191</v>
+      </c>
+      <c r="W125" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>4226</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>4227</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>4228</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD125" t="s">
+        <v>4229</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>4230</v>
+      </c>
+      <c r="AF125" t="s">
+        <v>4231</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>4232</v>
+      </c>
+      <c r="AH125" t="s">
+        <v>4233</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>4234</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>4235</v>
+      </c>
+      <c r="AM125" t="s">
+        <v>4236</v>
+      </c>
+      <c r="AN125" t="s">
+        <v>4237</v>
+      </c>
+      <c r="AO125" t="s">
+        <v>4238</v>
+      </c>
+      <c r="AP125" t="s">
+        <v>4239</v>
+      </c>
+      <c r="AQ125" t="s">
+        <v>4240</v>
+      </c>
+      <c r="AR125" t="s">
+        <v>4241</v>
+      </c>
+      <c r="AS125" t="s">
+        <v>4242</v>
+      </c>
+      <c r="AT125" t="s">
+        <v>4243</v>
+      </c>
+      <c r="AV125" t="s">
+        <v>866</v>
+      </c>
+      <c r="AW125" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AY125" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA125" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF125" t="s">
+        <v>3841</v>
+      </c>
+      <c r="BG125" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH125" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI125" t="s">
+        <v>504</v>
+      </c>
+      <c r="BJ125" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK125" t="s">
+        <v>229</v>
+      </c>
+      <c r="BL125" t="s">
+        <v>230</v>
+      </c>
+      <c r="BM125" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO125" t="s">
+        <v>223</v>
+      </c>
+      <c r="BP125" t="s">
+        <v>286</v>
+      </c>
+      <c r="BQ125" t="s">
+        <v>233</v>
+      </c>
+      <c r="BR125" t="s">
+        <v>1029</v>
+      </c>
+      <c r="BS125" t="s">
+        <v>289</v>
+      </c>
+      <c r="BT125" t="s">
+        <v>4244</v>
+      </c>
+      <c r="BU125" t="s">
+        <v>630</v>
+      </c>
+      <c r="BV125" t="s">
+        <v>468</v>
+      </c>
+      <c r="CD125" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE125" t="s">
+        <v>4245</v>
+      </c>
+      <c r="CJ125" t="s">
+        <v>4246</v>
+      </c>
+      <c r="CK125" t="s">
+        <v>4247</v>
+      </c>
+      <c r="CL125" t="s">
+        <v>4248</v>
+      </c>
+      <c r="CM125" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:91">
+      <c r="A126" t="s">
+        <v>4250</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1756</v>
+      </c>
+      <c r="J126" t="s">
+        <v>4251</v>
+      </c>
+      <c r="L126" t="s">
+        <v>193</v>
+      </c>
+      <c r="M126" t="s">
+        <v>4252</v>
+      </c>
+      <c r="N126" t="s">
+        <v>195</v>
+      </c>
+      <c r="P126" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>3892</v>
+      </c>
+      <c r="R126" t="s">
+        <v>4253</v>
+      </c>
+      <c r="S126" t="s">
+        <v>223</v>
+      </c>
+      <c r="T126" t="s">
+        <v>223</v>
+      </c>
+      <c r="V126" t="s">
+        <v>191</v>
+      </c>
+      <c r="W126" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>4254</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>4255</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>4256</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>4257</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>4258</v>
+      </c>
+      <c r="AF126" t="s">
+        <v>4259</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>4260</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>4261</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>4262</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>4263</v>
+      </c>
+      <c r="AK126" t="s">
+        <v>4264</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>4265</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>4266</v>
+      </c>
+      <c r="AN126" t="s">
+        <v>4267</v>
+      </c>
+      <c r="AO126" t="s">
+        <v>4268</v>
+      </c>
+      <c r="AP126" t="s">
+        <v>4269</v>
+      </c>
+      <c r="AQ126" t="s">
+        <v>4270</v>
+      </c>
+      <c r="AR126" t="s">
+        <v>4271</v>
+      </c>
+      <c r="AS126" t="s">
+        <v>4272</v>
+      </c>
+      <c r="AT126" t="s">
+        <v>4273</v>
+      </c>
+      <c r="AW126" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY126" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AZ126" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA126" t="s">
+        <v>253</v>
+      </c>
+      <c r="BG126" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH126" t="s">
+        <v>463</v>
+      </c>
+      <c r="BI126" t="s">
+        <v>430</v>
+      </c>
+      <c r="BJ126" t="s">
+        <v>1627</v>
+      </c>
+      <c r="BK126" t="s">
+        <v>4126</v>
+      </c>
+      <c r="BL126" t="s">
+        <v>230</v>
+      </c>
+      <c r="BM126" t="s">
+        <v>231</v>
+      </c>
+      <c r="BP126" t="s">
+        <v>286</v>
+      </c>
+      <c r="BQ126" t="s">
+        <v>704</v>
+      </c>
+      <c r="BR126" t="s">
+        <v>4274</v>
+      </c>
+      <c r="BS126" t="s">
+        <v>470</v>
+      </c>
+      <c r="BT126" t="s">
+        <v>256</v>
+      </c>
+      <c r="BU126" t="s">
+        <v>427</v>
+      </c>
+      <c r="BV126" t="s">
+        <v>228</v>
+      </c>
+      <c r="CD126" t="s">
+        <v>293</v>
+      </c>
+      <c r="CE126" t="s">
+        <v>866</v>
+      </c>
+      <c r="CJ126" t="s">
+        <v>4275</v>
+      </c>
+      <c r="CK126" t="s">
+        <v>4276</v>
+      </c>
+      <c r="CL126" t="s">
+        <v>4277</v>
+      </c>
+      <c r="CM126" t="s">
+        <v>4278</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:DC124" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>